--- a/Lab 6/06_Temperature_Data_Collection_Tables.xlsx
+++ b/Lab 6/06_Temperature_Data_Collection_Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-301\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05436E7D-73BA-492F-B202-2CD88B5C2BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E86173-7942-4414-AD75-9F31067D942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{C24F823A-60FD-4649-B8CD-37037DC27F81}"/>
   </bookViews>
@@ -19,15 +19,15 @@
     <sheet name="GPT cache" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'Time Constant'!$U$5</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Time Constant'!$T$5</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Time Constant'!$R$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Time Constant'!$S$5</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Time Constant'!$T$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Time Constant'!$T$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Time Constant'!$U$5</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Time Constant'!$U$5</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Time Constant'!$U$5</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -36,17 +36,17 @@
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Time Constant'!$U$6</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Time Constant'!$T$6</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0.0000000000001</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.00000000001</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -472,6 +472,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10325,9 +10329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12219BD-418B-2A46-A6CF-111DFCEF999C}">
   <dimension ref="A1:AG263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10338,14 +10342,15 @@
     <col min="4" max="4" width="13.125" style="24" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="28" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="24" customWidth="1"/>
     <col min="11" max="11" width="14.125" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="24" customWidth="1"/>
     <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="14.125" style="24" customWidth="1"/>
-    <col min="15" max="16" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
@@ -10402,7 +10407,7 @@
       <c r="F2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -10423,7 +10428,7 @@
       <c r="N2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="29" t="s">
         <v>59</v>
       </c>
       <c r="P2" s="7"/>
@@ -10476,25 +10481,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="24">
-        <v>46.320999999999998</v>
+        <v>48.457000000000001</v>
       </c>
       <c r="C3">
         <v>48.417999999999999</v>
       </c>
       <c r="D3" s="24">
         <f>R$4+(R$3-R$4)*EXP(-A3/R$5)</f>
-        <v>46.320999999999998</v>
+        <v>48.457000000000001</v>
       </c>
       <c r="E3">
         <f>S$4+(S$3-S$4)*EXP(-A3/S$5)</f>
         <v>48.417999999999999</v>
       </c>
       <c r="F3" s="24">
-        <f t="shared" ref="F3:F34" si="0">(D3-B3)^2</f>
+        <f>(D3-B3)^2</f>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>(C3-E3)^2</f>
+      <c r="G3" s="28">
+        <f>(E3-C3)^2</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -10504,7 +10509,7 @@
         <v>39.914000000000001</v>
       </c>
       <c r="K3">
-        <v>43.262</v>
+        <v>42.616999999999997</v>
       </c>
       <c r="L3" s="24">
         <f>T$4+(T$3-T$4)*EXP(-I3/T$5)</f>
@@ -10512,13 +10517,13 @@
       </c>
       <c r="M3">
         <f>U$4+(U$3-U$4)*EXP(-I3/U$5)</f>
-        <v>43.262</v>
+        <v>42.616999999999997</v>
       </c>
       <c r="N3" s="24">
         <f>(J3-L3)^2</f>
         <v>0</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="28">
         <f>(K3-M3)^2</f>
         <v>0</v>
       </c>
@@ -10527,7 +10532,7 @@
       </c>
       <c r="R3">
         <f>B3</f>
-        <v>46.320999999999998</v>
+        <v>48.457000000000001</v>
       </c>
       <c r="S3">
         <f>C3</f>
@@ -10539,7 +10544,7 @@
       </c>
       <c r="U3">
         <f>K3</f>
-        <v>43.262</v>
+        <v>42.616999999999997</v>
       </c>
       <c r="W3" s="14">
         <v>89228200</v>
@@ -10577,69 +10582,69 @@
         <v>1.0025679999999999</v>
       </c>
       <c r="B4" s="24">
-        <v>46.320999999999998</v>
+        <v>47.389000000000003</v>
       </c>
       <c r="C4">
-        <v>49.061999999999998</v>
+        <v>46.484000000000002</v>
       </c>
       <c r="D4" s="24">
-        <f t="shared" ref="D4:D35" si="1">$R$4+($R$3-$R$4)*EXP(-A4/$R$5)</f>
-        <v>46.069431556103446</v>
+        <f t="shared" ref="D4:D35" si="0">$R$4+($R$3-$R$4)*EXP(-A4/$R$5)</f>
+        <v>47.033343680836992</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="2">S$4+(S$3-S$4)*EXP(-A4/S$5)</f>
-        <v>47.949873477020184</v>
+        <f t="shared" ref="E4:E67" si="1">S$4+(S$3-S$4)*EXP(-A4/S$5)</f>
+        <v>47.121283591535516</v>
       </c>
       <c r="F4" s="24">
-        <f t="shared" si="0"/>
-        <v>6.3286681964532729E-2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G67" si="3">(C4-E4)^2</f>
-        <v>1.2368254031151709</v>
+        <f t="shared" ref="F4:G67" si="2">(D4-B4)^2</f>
+        <v>0.12649141736058114</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" si="2"/>
+        <v>0.40613037604040381</v>
       </c>
       <c r="I4">
         <v>3.848E-2</v>
       </c>
       <c r="J4" s="24">
-        <v>38.845999999999997</v>
+        <v>36.71</v>
       </c>
       <c r="K4">
-        <v>43.262</v>
+        <v>41.972999999999999</v>
       </c>
       <c r="L4" s="24">
-        <f t="shared" ref="L4:L67" si="4">T$4+(T$3-T$4)*EXP(-I4/T$5)</f>
-        <v>39.531912829374946</v>
+        <f t="shared" ref="L4:L67" si="3">T$4+(T$3-T$4)*EXP(-I4/T$5)</f>
+        <v>38.032373310881383</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="5">U$4+(U$3-U$4)*EXP(-I4/U$5)</f>
-        <v>42.681195735958504</v>
+        <f t="shared" ref="M4:M67" si="4">U$4+(U$3-U$4)*EXP(-I4/U$5)</f>
+        <v>39.071437772717665</v>
       </c>
       <c r="N4" s="24">
-        <f t="shared" ref="N4:N67" si="6">(J4-L4)^2</f>
-        <v>0.47047640950114822</v>
-      </c>
-      <c r="O4" s="24">
-        <f t="shared" ref="O4:O67" si="7">(K4-M4)^2</f>
-        <v>0.33733359312878469</v>
+        <f>(J4-L4)^2</f>
+        <v>1.7486711733313876</v>
+      </c>
+      <c r="O4" s="28">
+        <f t="shared" ref="O4:O67" si="5">(K4-M4)^2</f>
+        <v>8.4190633587916164</v>
       </c>
       <c r="Q4" t="s">
         <v>48</v>
       </c>
       <c r="R4">
-        <f>B190</f>
-        <v>0</v>
+        <f>B55</f>
+        <v>22.826000000000001</v>
       </c>
       <c r="S4">
-        <f>C263</f>
-        <v>0</v>
+        <f>C84</f>
+        <v>22.637</v>
       </c>
       <c r="T4">
-        <f>J73</f>
+        <f>J42</f>
         <v>20.690999999999999</v>
       </c>
       <c r="U4">
-        <f>K73</f>
+        <f>K45</f>
         <v>20.059000000000001</v>
       </c>
       <c r="W4" s="14">
@@ -10681,63 +10686,63 @@
         <v>46.320999999999998</v>
       </c>
       <c r="C5">
-        <v>48.417999999999999</v>
+        <v>44.551000000000002</v>
       </c>
       <c r="D5" s="24">
+        <f t="shared" si="0"/>
+        <v>45.688752950241664</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>45.819227384440119</v>
-      </c>
-      <c r="E5">
+        <v>45.889779028308403</v>
+      </c>
+      <c r="F5" s="24">
         <f t="shared" si="2"/>
-        <v>47.486269325829795</v>
-      </c>
-      <c r="F5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.25177575772580252</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>0.86812204918966296</v>
+        <v>0.39973633192811714</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" si="2"/>
+        <v>1.792329286638388</v>
       </c>
       <c r="I5">
         <v>7.6960000000000001E-2</v>
       </c>
       <c r="J5" s="24">
-        <v>39.914000000000001</v>
+        <v>34.573999999999998</v>
       </c>
       <c r="K5">
-        <v>43.262</v>
+        <v>40.683999999999997</v>
       </c>
       <c r="L5" s="24">
+        <f t="shared" si="3"/>
+        <v>36.334928018901792</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="4"/>
-        <v>39.157420238469818</v>
-      </c>
-      <c r="M5">
+        <v>36.083150636646046</v>
+      </c>
+      <c r="N5" s="24">
+        <f>(J5-L5)^2</f>
+        <v>3.1008674877533959</v>
+      </c>
+      <c r="O5" s="28">
         <f t="shared" si="5"/>
-        <v>42.11492983303966</v>
-      </c>
-      <c r="N5" s="24">
-        <f t="shared" si="6"/>
-        <v>0.57241293555706896</v>
-      </c>
-      <c r="O5" s="24">
-        <f t="shared" si="7"/>
-        <v>1.3157699679304224</v>
+        <v>21.167814864274462</v>
       </c>
       <c r="Q5" t="s">
         <v>49</v>
       </c>
       <c r="R5">
-        <v>184.09992094447094</v>
+        <v>17.543818088474985</v>
       </c>
       <c r="S5">
-        <v>103.19281377522863</v>
+        <v>19.427217558957697</v>
       </c>
       <c r="T5">
-        <v>1.9166440036006316</v>
+        <v>0.37354758304250663</v>
       </c>
       <c r="U5">
-        <v>1.5179460757583554</v>
+        <v>0.22503399626817433</v>
       </c>
       <c r="W5" s="14">
         <v>91233344</v>
@@ -10775,70 +10780,70 @@
         <v>3.0077199999999999</v>
       </c>
       <c r="B6" s="24">
-        <v>46.320999999999998</v>
+        <v>45.253</v>
       </c>
       <c r="C6">
-        <v>49.061999999999998</v>
+        <v>43.262</v>
       </c>
       <c r="D6" s="24">
+        <f t="shared" si="0"/>
+        <v>44.418847168835292</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>45.570382077546839</v>
-      </c>
-      <c r="E6">
+        <v>44.720216383192934</v>
+      </c>
+      <c r="F6" s="24">
         <f t="shared" si="2"/>
-        <v>47.027147539104959</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" si="0"/>
-        <v>0.56342726550789701</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>4.1406245376105941</v>
+        <v>0.69581094574009816</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="2"/>
+        <v>2.1263950202122803</v>
       </c>
       <c r="I6">
         <v>0.11544</v>
       </c>
       <c r="J6" s="24">
-        <v>39.914000000000001</v>
+        <v>33.506</v>
       </c>
       <c r="K6">
-        <v>43.905999999999999</v>
+        <v>31.66</v>
       </c>
       <c r="L6" s="24">
+        <f t="shared" si="3"/>
+        <v>34.803635687683141</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="4"/>
-        <v>38.790371273142327</v>
-      </c>
-      <c r="M6">
+        <v>33.564548667430053</v>
+      </c>
+      <c r="N6" s="24">
+        <f>(J6-L6)^2</f>
+        <v>1.6838583779488965</v>
+      </c>
+      <c r="O6" s="28">
         <f t="shared" si="5"/>
-        <v>41.562838375278616</v>
-      </c>
-      <c r="N6" s="24">
-        <f t="shared" si="6"/>
-        <v>1.2625415158197986</v>
-      </c>
-      <c r="O6" s="24">
-        <f t="shared" si="7"/>
-        <v>5.4904063995669485</v>
+        <v>3.6273056266095893</v>
       </c>
       <c r="Q6" t="s">
         <v>57</v>
       </c>
       <c r="R6">
-        <f>SUM(F3:F190)</f>
-        <v>2622.1703443210527</v>
+        <f>SUM(F3:F55)</f>
+        <v>44.581494602421238</v>
       </c>
       <c r="S6">
-        <f>SUM(G3:G263)</f>
-        <v>884.50754630905089</v>
+        <f>SUM(G3:G84)</f>
+        <v>64.554766953310804</v>
       </c>
       <c r="T6">
         <f>SUM(N3:N73)</f>
-        <v>1502.4283712909066</v>
+        <v>35.745093985661164</v>
       </c>
       <c r="U6">
         <f>SUM(O3:O73)</f>
-        <v>2720.3004570844219</v>
+        <v>69.888333390620403</v>
       </c>
       <c r="W6" s="14">
         <v>92235920</v>
@@ -10876,51 +10881,51 @@
         <v>4.0102799999999998</v>
       </c>
       <c r="B7" s="24">
-        <v>45.253</v>
+        <v>43.116999999999997</v>
       </c>
       <c r="C7">
-        <v>49.061999999999998</v>
+        <v>41.328000000000003</v>
       </c>
       <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>43.219496579068249</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>45.32289219437876</v>
-      </c>
-      <c r="E7">
+        <v>43.609497389266231</v>
+      </c>
+      <c r="F7" s="24">
         <f t="shared" si="2"/>
-        <v>46.572472000070668</v>
-      </c>
-      <c r="F7" s="24">
-        <f t="shared" si="0"/>
-        <v>4.8849188350783149E-3</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>6.1977496624321269</v>
+        <v>1.0505548720694331E-2</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="2"/>
+        <v>5.2052303372286142</v>
       </c>
       <c r="I7">
         <v>0.15392</v>
       </c>
       <c r="J7" s="24">
-        <v>39.914000000000001</v>
+        <v>32.438000000000002</v>
       </c>
       <c r="K7">
-        <v>43.905999999999999</v>
+        <v>28.437000000000001</v>
       </c>
       <c r="L7" s="24">
+        <f t="shared" si="3"/>
+        <v>33.422232578711991</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="4"/>
-        <v>38.430617979699718</v>
-      </c>
-      <c r="M7">
+        <v>31.441808920379639</v>
+      </c>
+      <c r="N7" s="24">
+        <f>(J7-L7)^2</f>
+        <v>0.96871376899805162</v>
+      </c>
+      <c r="O7" s="28">
         <f t="shared" si="5"/>
-        <v>41.024566556047446</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" si="6"/>
-        <v>2.2004222181501492</v>
-      </c>
-      <c r="O7" s="24">
-        <f t="shared" si="7"/>
-        <v>8.3026586919282668</v>
+        <v>9.0288766479930462</v>
       </c>
       <c r="W7" s="14">
         <v>93238480</v>
@@ -10958,51 +10963,51 @@
         <v>5.0128399999999997</v>
       </c>
       <c r="B8" s="24">
-        <v>46.320999999999998</v>
+        <v>43.116999999999997</v>
       </c>
       <c r="C8">
-        <v>49.061999999999998</v>
+        <v>40.683999999999997</v>
       </c>
       <c r="D8" s="24">
+        <f t="shared" si="0"/>
+        <v>42.086762578856423</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>45.076746413223383</v>
-      </c>
-      <c r="E8">
+        <v>42.554644201391604</v>
+      </c>
+      <c r="F8" s="24">
         <f t="shared" si="2"/>
-        <v>46.122192429250781</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="0"/>
-        <v>1.5481669882064724</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>8.6424685530344121</v>
+        <v>1.0613891439245633</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="2"/>
+        <v>3.4993097282000396</v>
       </c>
       <c r="I8">
         <v>0.19239999999999999</v>
       </c>
       <c r="J8" s="24">
-        <v>38.845999999999997</v>
+        <v>30.302</v>
       </c>
       <c r="K8">
-        <v>43.905999999999999</v>
+        <v>27.148</v>
       </c>
       <c r="L8" s="24">
+        <f t="shared" si="3"/>
+        <v>32.176046915419015</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="4"/>
-        <v>38.078015345260091</v>
-      </c>
-      <c r="M8">
+        <v>29.652711600206288</v>
+      </c>
+      <c r="N8" s="24">
+        <f>(J8-L8)^2</f>
+        <v>3.5120518411915254</v>
+      </c>
+      <c r="O8" s="28">
         <f t="shared" si="5"/>
-        <v>40.499768450035376</v>
-      </c>
-      <c r="N8" s="24">
-        <f t="shared" si="6"/>
-        <v>0.58980042991597137</v>
-      </c>
-      <c r="O8" s="24">
-        <f t="shared" si="7"/>
-        <v>11.6024133719744</v>
+        <v>6.273580200207947</v>
       </c>
       <c r="W8" s="14">
         <v>94241040</v>
@@ -11040,51 +11045,51 @@
         <v>6.0153999999999996</v>
       </c>
       <c r="B9" s="24">
-        <v>47.389000000000003</v>
+        <v>42.048999999999999</v>
       </c>
       <c r="C9">
-        <v>48.417999999999999</v>
+        <v>39.395000000000003</v>
       </c>
       <c r="D9" s="24">
+        <f t="shared" si="0"/>
+        <v>41.01694502410362</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>44.831937434347104</v>
-      </c>
-      <c r="E9">
+        <v>41.552846938489402</v>
+      </c>
+      <c r="F9" s="24">
         <f t="shared" si="2"/>
-        <v>45.676266324828326</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" si="0"/>
-        <v>6.5385689646633862</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>7.5171035455703699</v>
+        <v>1.0651374732724761</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="2"/>
+        <v>4.6563034099480731</v>
       </c>
       <c r="I9">
         <v>0.23088</v>
       </c>
       <c r="J9" s="24">
-        <v>38.845999999999997</v>
+        <v>30.302</v>
       </c>
       <c r="K9">
-        <v>43.262</v>
+        <v>26.504000000000001</v>
       </c>
       <c r="L9" s="24">
+        <f t="shared" si="3"/>
+        <v>31.051843055364294</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="4"/>
-        <v>37.732421239299271</v>
-      </c>
-      <c r="M9">
+        <v>28.144816331603941</v>
+      </c>
+      <c r="N9" s="24">
+        <f>(J9-L9)^2</f>
+        <v>0.56226460767806075</v>
+      </c>
+      <c r="O9" s="28">
         <f t="shared" si="5"/>
-        <v>39.988106790936754</v>
-      </c>
-      <c r="N9" s="24">
-        <f t="shared" si="6"/>
-        <v>1.2400576562837646</v>
-      </c>
-      <c r="O9" s="24">
-        <f t="shared" si="7"/>
-        <v>10.718376744350438</v>
+        <v>2.6922782340582105</v>
       </c>
       <c r="W9" s="14">
         <v>95243600</v>
@@ -11122,51 +11127,51 @@
         <v>7.0179679999999998</v>
       </c>
       <c r="B10" s="24">
-        <v>46.320999999999998</v>
+        <v>39.914000000000001</v>
       </c>
       <c r="C10">
-        <v>48.417999999999999</v>
+        <v>38.75</v>
       </c>
       <c r="D10" s="24">
+        <f t="shared" si="0"/>
+        <v>40.006541456739413</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>44.588456060084333</v>
-      </c>
-      <c r="E10">
+        <v>40.601429650364736</v>
+      </c>
+      <c r="F10" s="24">
         <f t="shared" si="2"/>
-        <v>45.234648089103139</v>
-      </c>
-      <c r="F10" s="24">
-        <f t="shared" si="0"/>
-        <v>3.0017085037384956</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>10.133729388610691</v>
+        <v>8.5639212154523491E-3</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="2"/>
+        <v>3.4277917502496882</v>
       </c>
       <c r="I10">
         <v>0.26935999999999999</v>
       </c>
       <c r="J10" s="24">
-        <v>38.845999999999997</v>
+        <v>31.37</v>
       </c>
       <c r="K10">
-        <v>43.905999999999999</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="L10" s="24">
+        <f t="shared" si="3"/>
+        <v>30.037680915493169</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="4"/>
-        <v>37.393696356359371</v>
-      </c>
-      <c r="M10">
+        <v>26.873925075194794</v>
+      </c>
+      <c r="N10" s="24">
+        <f>(J10-L10)^2</f>
+        <v>1.7750741429411223</v>
+      </c>
+      <c r="O10" s="28">
         <f t="shared" si="5"/>
-        <v>39.489252754703742</v>
-      </c>
-      <c r="N10" s="24">
-        <f t="shared" si="6"/>
-        <v>2.109185873331838</v>
-      </c>
-      <c r="O10" s="24">
-        <f t="shared" si="7"/>
-        <v>19.507656228832076</v>
+        <v>1.0300729082591551</v>
       </c>
       <c r="W10" s="14">
         <v>96246168</v>
@@ -11204,51 +11209,51 @@
         <v>8.0205280000000005</v>
       </c>
       <c r="B11" s="24">
-        <v>47.389000000000003</v>
+        <v>38.845999999999997</v>
       </c>
       <c r="C11">
-        <v>48.417999999999999</v>
+        <v>38.104999999999997</v>
       </c>
       <c r="D11" s="24">
+        <f t="shared" si="0"/>
+        <v>39.052267461858492</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>44.346298955450514</v>
-      </c>
-      <c r="E11">
+        <v>39.697873171929544</v>
+      </c>
+      <c r="F11" s="24">
         <f t="shared" si="2"/>
-        <v>44.797303085648757</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="0"/>
-        <v>9.2580296465025498</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>13.109446145592608</v>
+        <v>4.2546265821545685E-2</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="2"/>
+        <v>2.5372449418528964</v>
       </c>
       <c r="I11">
         <v>0.30784</v>
       </c>
       <c r="J11" s="24">
-        <v>38.845999999999997</v>
+        <v>29.234000000000002</v>
       </c>
       <c r="K11">
-        <v>44.551000000000002</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="L11" s="24">
+        <f t="shared" si="3"/>
+        <v>29.122789157428997</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="4"/>
-        <v>37.061704159896237</v>
-      </c>
-      <c r="M11">
+        <v>25.802786635245781</v>
+      </c>
+      <c r="N11" s="24">
+        <f>(J11-L11)^2</f>
+        <v>1.2367851505352807E-2</v>
+      </c>
+      <c r="O11" s="28">
         <f t="shared" si="5"/>
-        <v>39.002885748224585</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="6"/>
-        <v>3.1837116450115799</v>
-      </c>
-      <c r="O11" s="24">
-        <f t="shared" si="7"/>
-        <v>30.781571750753489</v>
+        <v>3.1599423769911091E-3</v>
       </c>
       <c r="W11" s="14">
         <v>97248728</v>
@@ -11286,51 +11291,51 @@
         <v>9.0230960000000007</v>
       </c>
       <c r="B12" s="24">
-        <v>46.320999999999998</v>
+        <v>36.71</v>
       </c>
       <c r="C12">
-        <v>48.417999999999999</v>
+        <v>36.816000000000003</v>
       </c>
       <c r="D12" s="24">
+        <f t="shared" si="0"/>
+        <v>38.150990562459178</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>44.105455074256369</v>
-      </c>
-      <c r="E12">
+        <v>38.839756179385709</v>
+      </c>
+      <c r="F12" s="24">
         <f t="shared" si="2"/>
-        <v>44.364183053174102</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="0"/>
-        <v>4.9086393179883414</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>16.433431838372837</v>
+        <v>2.0764538010964158</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="2"/>
+        <v>4.0955890736018334</v>
       </c>
       <c r="I12">
         <v>0.34632000000000002</v>
       </c>
       <c r="J12" s="24">
-        <v>39.914000000000001</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="K12">
-        <v>44.551000000000002</v>
+        <v>24.57</v>
       </c>
       <c r="L12" s="24">
+        <f t="shared" si="3"/>
+        <v>28.297450785913657</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="4"/>
-        <v>36.736310827242924</v>
-      </c>
-      <c r="M12">
+        <v>24.900004786877286</v>
+      </c>
+      <c r="N12" s="24">
+        <f>(J12-L12)^2</f>
+        <v>1.4386821878288925</v>
+      </c>
+      <c r="O12" s="28">
         <f t="shared" si="5"/>
-        <v>38.528693203291446</v>
-      </c>
-      <c r="N12" s="24">
-        <f t="shared" si="6"/>
-        <v>10.097708478657557</v>
-      </c>
-      <c r="O12" s="24">
-        <f t="shared" si="7"/>
-        <v>36.268179153682063</v>
+        <v>0.10890315936192278</v>
       </c>
       <c r="W12" s="14">
         <v>98251296</v>
@@ -11368,51 +11373,51 @@
         <v>10.025656</v>
       </c>
       <c r="B13" s="24">
-        <v>46.320999999999998</v>
+        <v>36.71</v>
       </c>
       <c r="C13">
-        <v>49.061999999999998</v>
+        <v>36.816000000000003</v>
       </c>
       <c r="D13" s="24">
+        <f t="shared" si="0"/>
+        <v>37.299781070466508</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>43.865921117643325</v>
-      </c>
-      <c r="E13">
+        <v>38.024806548402431</v>
+      </c>
+      <c r="F13" s="24">
         <f t="shared" si="2"/>
-        <v>43.935254021772721</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
-        <v>6.0274123185936928</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>26.283524325269557</v>
+        <v>0.34784171108061962</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="2"/>
+        <v>1.4612132714605925</v>
       </c>
       <c r="I13">
         <v>0.38480799999999998</v>
       </c>
       <c r="J13" s="24">
-        <v>39.914000000000001</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="K13">
-        <v>43.905999999999999</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="L13" s="24">
+        <f t="shared" si="3"/>
+        <v>27.552752990541755</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="4"/>
-        <v>36.417319554463703</v>
-      </c>
-      <c r="M13">
+        <v>24.138972972424451</v>
+      </c>
+      <c r="N13" s="24">
+        <f>(J13-L13)^2</f>
+        <v>0.20680028240667062</v>
+      </c>
+      <c r="O13" s="28">
         <f t="shared" si="5"/>
-        <v>38.066275472101772</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="6"/>
-        <v>12.22677413819593</v>
-      </c>
-      <c r="O13" s="24">
-        <f t="shared" si="7"/>
-        <v>34.102382561736171</v>
+        <v>4.5357486983306682E-2</v>
       </c>
       <c r="W13" s="14">
         <v>99253856</v>
@@ -11450,51 +11455,51 @@
         <v>11.028224</v>
       </c>
       <c r="B14" s="24">
-        <v>47.389000000000003</v>
+        <v>36.71</v>
       </c>
       <c r="C14">
-        <v>48.417999999999999</v>
+        <v>35.527000000000001</v>
       </c>
       <c r="D14" s="24">
+        <f t="shared" si="0"/>
+        <v>36.495844825951991</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
-        <v>43.627686159079083</v>
-      </c>
-      <c r="E14">
+        <v>37.250840401178095</v>
+      </c>
+      <c r="F14" s="24">
         <f t="shared" si="2"/>
-        <v>43.510468658861257</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="0"/>
-        <v>14.147481809903283</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>24.083863864259026</v>
+        <v>4.5862438571533305E-2</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="2"/>
+        <v>2.9716257287338532</v>
       </c>
       <c r="I14">
         <v>0.42327999999999999</v>
       </c>
       <c r="J14" s="24">
-        <v>38.845999999999997</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="K14">
-        <v>43.905999999999999</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="L14" s="24">
+        <f t="shared" si="3"/>
+        <v>26.88122881829851</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="4"/>
-        <v>36.104798709500997</v>
-      </c>
-      <c r="M14">
+        <v>23.497823917796179</v>
+      </c>
+      <c r="N14" s="24">
+        <f>(J14-L14)^2</f>
+        <v>4.6989745216259968E-2</v>
+      </c>
+      <c r="O14" s="28">
         <f t="shared" si="5"/>
-        <v>37.615620149530905</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="6"/>
-        <v>7.5141845150333788</v>
-      </c>
-      <c r="O14" s="24">
-        <f t="shared" si="7"/>
-        <v>39.568878663187583</v>
+        <v>0.18333475737141192</v>
       </c>
       <c r="W14" s="14">
         <v>100256424</v>
@@ -11532,51 +11537,51 @@
         <v>12.030832</v>
       </c>
       <c r="B15" s="24">
-        <v>48.457000000000001</v>
+        <v>35.642000000000003</v>
       </c>
       <c r="C15">
-        <v>48.417999999999999</v>
+        <v>35.527000000000001</v>
       </c>
       <c r="D15" s="24">
+        <f t="shared" si="0"/>
+        <v>35.736533232740186</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
-        <v>43.390735622259484</v>
-      </c>
-      <c r="E15">
+        <v>36.515774137033716</v>
+      </c>
+      <c r="F15" s="24">
         <f t="shared" si="2"/>
-        <v>43.089773605071684</v>
-      </c>
-      <c r="F15" s="24">
-        <f t="shared" si="0"/>
-        <v>25.667034745162503</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>28.389996515610786</v>
+        <v>8.9365320923095841E-3</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="2"/>
+        <v>0.97767429406676842</v>
       </c>
       <c r="I15">
         <v>0.46176</v>
       </c>
       <c r="J15" s="24">
-        <v>42.048999999999999</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="K15">
-        <v>43.262</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="L15" s="24">
+        <f t="shared" si="3"/>
+        <v>26.275303637199737</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="4"/>
-        <v>35.79842536832129</v>
-      </c>
-      <c r="M15">
+        <v>22.957325460964316</v>
+      </c>
+      <c r="N15" s="24">
+        <f>(J15-L15)^2</f>
+        <v>0.67682930536477948</v>
+      </c>
+      <c r="O15" s="28">
         <f t="shared" si="5"/>
-        <v>37.176152845949289</v>
-      </c>
-      <c r="N15" s="24">
-        <f t="shared" si="6"/>
-        <v>39.06968322618544</v>
-      </c>
-      <c r="O15" s="24">
-        <f t="shared" si="7"/>
-        <v>37.037535582467143</v>
+        <v>0.93833036257599078</v>
       </c>
       <c r="W15" s="14">
         <v>101259032</v>
@@ -11614,51 +11619,51 @@
         <v>13.033440000000001</v>
       </c>
       <c r="B16" s="24">
-        <v>47.389000000000003</v>
+        <v>37.777999999999999</v>
       </c>
       <c r="C16">
-        <v>46.484000000000002</v>
+        <v>34.883000000000003</v>
       </c>
       <c r="D16" s="24">
+        <f t="shared" si="0"/>
+        <v>35.01939871636624</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
-        <v>43.155072010368578</v>
-      </c>
-      <c r="E16">
+        <v>35.817681207608366</v>
+      </c>
+      <c r="F16" s="24">
         <f t="shared" si="2"/>
-        <v>42.67314617761982</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="0"/>
-        <v>17.926146221384403</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>14.52260685554964</v>
+        <v>7.6098810420658216</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="2"/>
+        <v>0.87362895985622913</v>
       </c>
       <c r="I16">
         <v>0.50024000000000002</v>
       </c>
       <c r="J16" s="24">
-        <v>39.914000000000001</v>
+        <v>26.03</v>
       </c>
       <c r="K16">
-        <v>43.905999999999999</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="L16" s="24">
+        <f t="shared" si="3"/>
+        <v>25.728688917130178</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="4"/>
-        <v>35.49814167616028</v>
-      </c>
-      <c r="M16">
+        <v>22.501780054600022</v>
+      </c>
+      <c r="N16" s="24">
+        <f>(J16-L16)^2</f>
+        <v>9.0788368660185415E-2</v>
+      </c>
+      <c r="O16" s="28">
         <f t="shared" si="5"/>
-        <v>36.747686037296205</v>
-      </c>
-      <c r="N16" s="24">
-        <f t="shared" si="6"/>
-        <v>19.499804736224554</v>
-      </c>
-      <c r="O16" s="24">
-        <f t="shared" si="7"/>
-        <v>51.241458788640088</v>
+        <v>0.60718372330914216</v>
       </c>
       <c r="W16" s="14">
         <v>102261640</v>
@@ -11696,51 +11701,51 @@
         <v>14.036064</v>
       </c>
       <c r="B17" s="24">
-        <v>47.389000000000003</v>
+        <v>33.506</v>
       </c>
       <c r="C17">
-        <v>44.551000000000002</v>
+        <v>34.883000000000003</v>
       </c>
       <c r="D17" s="24">
+        <f t="shared" si="0"/>
+        <v>34.34208798649469</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>42.920684603656255</v>
-      </c>
-      <c r="E17">
+        <v>35.154691569823392</v>
+      </c>
+      <c r="F17" s="24">
         <f t="shared" si="2"/>
-        <v>42.260540494864877</v>
-      </c>
-      <c r="F17" s="24">
-        <f t="shared" si="0"/>
-        <v>19.965842481202582</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>5.2462047446638422</v>
+        <v>0.69904312116074407</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3816309113097486E-2</v>
       </c>
       <c r="I17">
         <v>0.53871999999999998</v>
       </c>
       <c r="J17" s="24">
-        <v>38.845999999999997</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="K17">
-        <v>44.551000000000002</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="L17" s="24">
+        <f t="shared" si="3"/>
+        <v>25.23557910503273</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="4"/>
-        <v>35.203826591725566</v>
-      </c>
-      <c r="M17">
+        <v>22.117835170694157</v>
+      </c>
+      <c r="N17" s="24">
+        <f>(J17-L17)^2</f>
+        <v>3.4686115900106813</v>
+      </c>
+      <c r="O17" s="28">
         <f t="shared" si="5"/>
-        <v>36.329944365455873</v>
-      </c>
-      <c r="N17" s="24">
-        <f t="shared" si="6"/>
-        <v>13.265427135941383</v>
-      </c>
-      <c r="O17" s="24">
-        <f t="shared" si="7"/>
-        <v>67.585755746269768</v>
+        <v>1.3529524201340883</v>
       </c>
       <c r="W17" s="14">
         <v>103264264</v>
@@ -11778,51 +11783,51 @@
         <v>15.038672</v>
       </c>
       <c r="B18" s="24">
-        <v>46.320999999999998</v>
+        <v>33.506</v>
       </c>
       <c r="C18">
-        <v>43.262</v>
+        <v>33.594000000000001</v>
       </c>
       <c r="D18" s="24">
+        <f t="shared" si="0"/>
+        <v>33.702409977861279</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>42.687573931217244</v>
-      </c>
-      <c r="E18">
+        <v>34.525060170728608</v>
+      </c>
+      <c r="F18" s="24">
         <f t="shared" si="2"/>
-        <v>41.851930776223234</v>
-      </c>
-      <c r="F18" s="24">
-        <f t="shared" si="0"/>
-        <v>13.201784997310096</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>1.9882952158424114</v>
+        <v>3.8576879403468156E-2</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="2"/>
+        <v>0.86687304151718247</v>
       </c>
       <c r="I18">
         <v>0.57720000000000005</v>
       </c>
       <c r="J18" s="24">
-        <v>40.981999999999999</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="K18">
-        <v>43.262</v>
+        <v>22.637</v>
       </c>
       <c r="L18" s="24">
+        <f t="shared" si="3"/>
+        <v>24.790736919378027</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="4"/>
-        <v>34.915361479609636</v>
-      </c>
-      <c r="M18">
+        <v>21.794236969904478</v>
+      </c>
+      <c r="N18" s="24">
+        <f>(J18-L18)^2</f>
+        <v>0.8041371025755969</v>
+      </c>
+      <c r="O18" s="28">
         <f t="shared" si="5"/>
-        <v>35.922659364919788</v>
-      </c>
-      <c r="N18" s="24">
-        <f t="shared" si="6"/>
-        <v>36.804102937084174</v>
-      </c>
-      <c r="O18" s="24">
-        <f t="shared" si="7"/>
-        <v>53.865920957739618</v>
+        <v>0.71024952489578608</v>
       </c>
       <c r="W18" s="14">
         <v>104266872</v>
@@ -11860,51 +11865,51 @@
         <v>16.04128</v>
       </c>
       <c r="B19" s="24">
-        <v>47.389000000000003</v>
+        <v>32.438000000000002</v>
       </c>
       <c r="C19">
-        <v>41.328000000000003</v>
+        <v>32.948999999999998</v>
       </c>
       <c r="D19" s="24">
+        <f t="shared" si="0"/>
+        <v>33.098263823031793</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>42.455729328648907</v>
-      </c>
-      <c r="E19">
+        <v>33.927098804124618</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" si="2"/>
-        <v>41.4472718329435</v>
-      </c>
-      <c r="F19" s="24">
-        <f t="shared" si="0"/>
-        <v>24.337159516812893</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>1.4225770133701396E-2</v>
+        <v>0.43594831600455591</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="2"/>
+        <v>0.95667727063001251</v>
       </c>
       <c r="I19">
         <v>0.61568000000000001</v>
       </c>
       <c r="J19" s="24">
-        <v>38.845999999999997</v>
+        <v>24.962</v>
       </c>
       <c r="K19">
-        <v>43.905999999999999</v>
+        <v>22.637</v>
       </c>
       <c r="L19" s="24">
+        <f t="shared" si="3"/>
+        <v>24.389437725398594</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="4"/>
-        <v>34.632630062469119</v>
-      </c>
-      <c r="M19">
+        <v>21.521500439366434</v>
+      </c>
+      <c r="N19" s="24">
+        <f>(J19-L19)^2</f>
+        <v>0.32782755829673593</v>
+      </c>
+      <c r="O19" s="28">
         <f t="shared" si="5"/>
-        <v>35.525569290254992</v>
-      </c>
-      <c r="N19" s="24">
-        <f t="shared" si="6"/>
-        <v>17.752486230488955</v>
-      </c>
-      <c r="O19" s="24">
-        <f t="shared" si="7"/>
-        <v>70.231618880837189</v>
+        <v>1.2443392697736788</v>
       </c>
       <c r="W19" s="14">
         <v>105269480</v>
@@ -11942,51 +11947,51 @@
         <v>17.043880000000001</v>
       </c>
       <c r="B20" s="24">
-        <v>46.320999999999998</v>
+        <v>32.438000000000002</v>
       </c>
       <c r="C20">
-        <v>40.683999999999997</v>
+        <v>32.948999999999998</v>
       </c>
       <c r="D20" s="24">
+        <f t="shared" si="0"/>
+        <v>32.527680277014539</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>42.225145754556394</v>
-      </c>
-      <c r="E20">
+        <v>33.35921890418718</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="2"/>
-        <v>41.046528647797849</v>
-      </c>
-      <c r="F20" s="24">
-        <f t="shared" si="0"/>
-        <v>16.776021999918395</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>0.13142702047413901</v>
+        <v>8.0425520854041053E-3</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="2"/>
+        <v>0.16827954935253275</v>
       </c>
       <c r="I20">
         <v>0.65415999999999996</v>
       </c>
       <c r="J20" s="24">
-        <v>38.845999999999997</v>
+        <v>24.962</v>
       </c>
       <c r="K20">
-        <v>43.262</v>
+        <v>22.637</v>
       </c>
       <c r="L20" s="24">
+        <f t="shared" si="3"/>
+        <v>24.027419355105032</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="4"/>
-        <v>34.355518374154599</v>
-      </c>
-      <c r="M20">
+        <v>21.291631376718975</v>
+      </c>
+      <c r="N20" s="24">
+        <f>(J20-L20)^2</f>
+        <v>0.87344098181229435</v>
+      </c>
+      <c r="O20" s="28">
         <f t="shared" si="5"/>
-        <v>35.138418947890933</v>
-      </c>
-      <c r="N20" s="24">
-        <f t="shared" si="6"/>
-        <v>20.164425232055127</v>
-      </c>
-      <c r="O20" s="24">
-        <f t="shared" si="7"/>
-        <v>65.992569110185457</v>
+        <v>1.8100167325090821</v>
       </c>
       <c r="W20" s="14">
         <v>106272080</v>
@@ -12024,51 +12029,51 @@
         <v>18.046479999999999</v>
       </c>
       <c r="B21" s="24">
-        <v>47.389000000000003</v>
+        <v>32.438000000000002</v>
       </c>
       <c r="C21">
-        <v>39.395000000000003</v>
+        <v>31.66</v>
       </c>
       <c r="D21" s="24">
+        <f t="shared" si="0"/>
+        <v>31.988790385735367</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>41.995814515201317</v>
-      </c>
-      <c r="E21">
+        <v>32.819902756113031</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="2"/>
-        <v>40.649660147120883</v>
-      </c>
-      <c r="F21" s="24">
-        <f t="shared" si="0"/>
-        <v>29.086449673443234</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>1.5741720847733889</v>
+        <v>0.20178927754778248</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="2"/>
+        <v>1.3453744036386046</v>
       </c>
       <c r="I21">
         <v>0.69264000000000003</v>
       </c>
       <c r="J21" s="24">
-        <v>39.914000000000001</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="K21">
-        <v>43.262</v>
+        <v>22.637</v>
       </c>
       <c r="L21" s="24">
+        <f t="shared" si="3"/>
+        <v>23.700836839126385</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="4"/>
-        <v>34.083914713771989</v>
-      </c>
-      <c r="M21">
+        <v>21.097892071396792</v>
+      </c>
+      <c r="N21" s="24">
+        <f>(J21-L21)^2</f>
+        <v>3.7312006718685412E-2</v>
+      </c>
+      <c r="O21" s="28">
         <f t="shared" si="5"/>
-        <v>34.760959532116978</v>
-      </c>
-      <c r="N21" s="24">
-        <f t="shared" si="6"/>
-        <v>33.989894444692368</v>
-      </c>
-      <c r="O21" s="24">
-        <f t="shared" si="7"/>
-        <v>72.267689036584798</v>
+        <v>2.3688532158892581</v>
       </c>
       <c r="W21" s="14">
         <v>107274680</v>
@@ -12106,51 +12111,51 @@
         <v>19.049088000000001</v>
       </c>
       <c r="B22" s="24">
-        <v>47.389000000000003</v>
+        <v>31.37</v>
       </c>
       <c r="C22">
-        <v>38.75</v>
+        <v>32.305</v>
       </c>
       <c r="D22" s="24">
+        <f t="shared" si="0"/>
+        <v>31.479829746120053</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>41.767726993959201</v>
-      </c>
-      <c r="E22">
+        <v>32.307709651384855</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="2"/>
-        <v>40.25662574668268</v>
-      </c>
-      <c r="F22" s="24">
-        <f t="shared" si="0"/>
-        <v>31.598710208442995</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>2.2699211405671424</v>
+        <v>1.2062573132795157E-2</v>
+      </c>
+      <c r="G22" s="28">
+        <f t="shared" si="2"/>
+        <v>7.3422106274455049E-6</v>
       </c>
       <c r="I22">
         <v>0.73111999999999999</v>
       </c>
       <c r="J22" s="24">
-        <v>39.914000000000001</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="K22">
-        <v>43.262</v>
+        <v>22.637</v>
       </c>
       <c r="L22" s="24">
+        <f t="shared" si="3"/>
+        <v>23.406221569585075</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="4"/>
-        <v>33.817709600657082</v>
-      </c>
-      <c r="M22">
+        <v>20.934603815054583</v>
+      </c>
+      <c r="N22" s="24">
+        <f>(J22-L22)^2</f>
+        <v>0.33665706981176696</v>
+      </c>
+      <c r="O22" s="28">
         <f t="shared" si="5"/>
-        <v>34.392948465185157</v>
-      </c>
-      <c r="N22" s="24">
-        <f t="shared" si="6"/>
-        <v>37.164756633120653</v>
-      </c>
-      <c r="O22" s="24">
-        <f t="shared" si="7"/>
-        <v>78.660075127201537</v>
+        <v>2.8981527705167118</v>
       </c>
       <c r="W22" s="14">
         <v>108277288</v>
@@ -12188,51 +12193,51 @@
         <v>20.051696</v>
       </c>
       <c r="B23" s="24">
-        <v>47.389000000000003</v>
+        <v>31.37</v>
       </c>
       <c r="C23">
-        <v>38.104999999999997</v>
+        <v>31.66</v>
       </c>
       <c r="D23" s="24">
+        <f t="shared" si="0"/>
+        <v>30.999140072201055</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>41.540878260866506</v>
-      </c>
-      <c r="E23">
+        <v>31.821279512562796</v>
+      </c>
+      <c r="F23" s="24">
         <f t="shared" si="2"/>
-        <v>39.867391526599462</v>
-      </c>
-      <c r="F23" s="24">
-        <f t="shared" si="0"/>
-        <v>34.20052787572579</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>3.1060238930295943</v>
+        <v>0.13753708604703974</v>
+      </c>
+      <c r="G23" s="28">
+        <f t="shared" si="2"/>
+        <v>2.6011081172493122E-2</v>
       </c>
       <c r="I23">
         <v>0.76959999999999995</v>
       </c>
       <c r="J23" s="24">
-        <v>39.914000000000001</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="K23">
-        <v>43.905999999999999</v>
+        <v>21.347999999999999</v>
       </c>
       <c r="L23" s="24">
+        <f t="shared" si="3"/>
+        <v>23.14044446027842</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="4"/>
-        <v>33.556795730244986</v>
-      </c>
-      <c r="M23">
+        <v>20.796980452490445</v>
+      </c>
+      <c r="N23" s="24">
+        <f>(J23-L23)^2</f>
+        <v>0.56784595144507888</v>
+      </c>
+      <c r="O23" s="28">
         <f t="shared" si="5"/>
-        <v>34.034149241415363</v>
-      </c>
-      <c r="N23" s="24">
-        <f t="shared" si="6"/>
-        <v>40.414046127391408</v>
-      </c>
-      <c r="O23" s="24">
-        <f t="shared" si="7"/>
-        <v>97.453437399768035</v>
+        <v>0.30362254173763398</v>
       </c>
       <c r="W23" s="14">
         <v>109279896</v>
@@ -12270,51 +12275,51 @@
         <v>21.054303999999998</v>
       </c>
       <c r="B24" s="24">
-        <v>46.320999999999998</v>
+        <v>28.166</v>
       </c>
       <c r="C24">
-        <v>36.816000000000003</v>
+        <v>31.015999999999998</v>
       </c>
       <c r="D24" s="24">
+        <f t="shared" si="0"/>
+        <v>30.545151011697286</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>41.31526158782134</v>
-      </c>
-      <c r="E24">
+        <v>31.359316479928815</v>
+      </c>
+      <c r="F24" s="24">
         <f t="shared" si="2"/>
-        <v>39.481920743597065</v>
-      </c>
-      <c r="F24" s="24">
-        <f t="shared" si="0"/>
-        <v>25.057417051160915</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>7.1071334111411169</v>
+        <v>5.6603595364602155</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="2"/>
+        <v>0.11786620539071341</v>
       </c>
       <c r="I24">
         <v>0.80808000000000002</v>
       </c>
       <c r="J24" s="24">
-        <v>39.914000000000001</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="K24">
-        <v>43.262</v>
+        <v>21.347999999999999</v>
       </c>
       <c r="L24" s="24">
+        <f t="shared" si="3"/>
+        <v>22.900682712893847</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="4"/>
-        <v>33.301067930816728</v>
-      </c>
-      <c r="M24">
+        <v>20.680988094266183</v>
+      </c>
+      <c r="N24" s="24">
+        <f>(J24-L24)^2</f>
+        <v>0.98667923286392467</v>
+      </c>
+      <c r="O24" s="28">
         <f t="shared" si="5"/>
-        <v>33.684331275202787</v>
-      </c>
-      <c r="N24" s="24">
-        <f t="shared" si="6"/>
-        <v>43.730870551632563</v>
-      </c>
-      <c r="O24" s="24">
-        <f t="shared" si="7"/>
-        <v>91.731738201958677</v>
+        <v>0.4449048823906564</v>
       </c>
       <c r="W24" s="14">
         <v>110282504</v>
@@ -12352,51 +12357,51 @@
         <v>22.056912000000001</v>
       </c>
       <c r="B25" s="24">
-        <v>47.389000000000003</v>
+        <v>29.234000000000002</v>
       </c>
       <c r="C25">
-        <v>36.816000000000003</v>
+        <v>30.370999999999999</v>
       </c>
       <c r="D25" s="24">
+        <f t="shared" si="0"/>
+        <v>30.116379439849815</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>41.090870283263492</v>
-      </c>
-      <c r="E25">
+        <v>30.920589874630089</v>
+      </c>
+      <c r="F25" s="24">
         <f t="shared" si="2"/>
-        <v>39.100177009665565</v>
-      </c>
-      <c r="F25" s="24">
-        <f t="shared" si="0"/>
-        <v>39.666437928839528</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>5.2174646114847096</v>
+        <v>0.77859347586967098</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" si="2"/>
+        <v>0.30204903029591829</v>
       </c>
       <c r="I25">
         <v>0.84655999999999998</v>
       </c>
       <c r="J25" s="24">
-        <v>39.914000000000001</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="K25">
-        <v>43.262</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="L25" s="24">
+        <f t="shared" si="3"/>
+        <v>22.684389836284314</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="4"/>
-        <v>33.05042312110568</v>
-      </c>
-      <c r="M25">
+        <v>20.583226879049874</v>
+      </c>
+      <c r="N25" s="24">
+        <f>(J25-L25)^2</f>
+        <v>2.0053438467583493E-2</v>
+      </c>
+      <c r="O25" s="28">
         <f t="shared" si="5"/>
-        <v>33.343269752830004</v>
-      </c>
-      <c r="N25" s="24">
-        <f t="shared" si="6"/>
-        <v>47.108687572492705</v>
-      </c>
-      <c r="O25" s="24">
-        <f t="shared" si="7"/>
-        <v>98.381209716124985</v>
+        <v>0.27481382071837063</v>
       </c>
       <c r="W25" s="14">
         <v>111285112</v>
@@ -12434,51 +12439,51 @@
         <v>23.059528</v>
       </c>
       <c r="B26" s="24">
-        <v>47.389000000000003</v>
+        <v>29.234000000000002</v>
       </c>
       <c r="C26">
-        <v>35.527000000000001</v>
+        <v>30.370999999999999</v>
       </c>
       <c r="D26" s="24">
+        <f t="shared" si="0"/>
+        <v>29.711421474480797</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="1"/>
-        <v>40.867695916083903</v>
-      </c>
-      <c r="E26">
+        <v>30.503927680576147</v>
+      </c>
+      <c r="F26" s="24">
         <f t="shared" si="2"/>
-        <v>38.722121286700329</v>
-      </c>
-      <c r="F26" s="24">
-        <f t="shared" si="0"/>
-        <v>42.527406954900798</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>10.208800036725558</v>
+        <v>0.22793126429541699</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7669768263354643E-2</v>
       </c>
       <c r="I26">
         <v>0.88504000000000005</v>
       </c>
       <c r="J26" s="24">
-        <v>39.914000000000001</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="K26">
-        <v>43.262</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L26" s="24">
+        <f t="shared" si="3"/>
+        <v>22.489268600380949</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="4"/>
-        <v>32.804760268746463</v>
-      </c>
-      <c r="M26">
+        <v>20.500831320007169</v>
+      </c>
+      <c r="N26" s="24">
+        <f>(J26-L26)^2</f>
+        <v>0.11338803548940507</v>
+      </c>
+      <c r="O26" s="28">
         <f t="shared" si="5"/>
-        <v>33.010745487988345</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" si="6"/>
-        <v>50.541289556433881</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="7"/>
-        <v>105.08821907003933</v>
+        <v>4.0872175170043462E-2</v>
       </c>
       <c r="W26" s="14">
         <v>112287728</v>
@@ -12516,51 +12521,51 @@
         <v>24.062135999999999</v>
       </c>
       <c r="B27" s="24">
-        <v>47.389000000000003</v>
+        <v>31.37</v>
       </c>
       <c r="C27">
-        <v>35.527000000000001</v>
+        <v>30.370999999999999</v>
       </c>
       <c r="D27" s="24">
+        <f t="shared" si="0"/>
+        <v>29.328960633389375</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
-        <v>40.645735428640528</v>
-      </c>
-      <c r="E27">
+        <v>30.108226551939975</v>
+      </c>
+      <c r="F27" s="24">
         <f t="shared" si="2"/>
-        <v>38.347723919821199</v>
-      </c>
-      <c r="F27" s="24">
-        <f t="shared" si="0"/>
-        <v>45.471617079351887</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>7.9564834318514643</v>
+        <v>4.1658416960543052</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="2"/>
+        <v>6.904988500535407E-2</v>
       </c>
       <c r="I27">
         <v>0.92352000000000001</v>
       </c>
       <c r="J27" s="24">
-        <v>37.777999999999999</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="K27">
-        <v>43.262</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L27" s="24">
+        <f t="shared" si="3"/>
+        <v>22.31324663748854</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="4"/>
-        <v>32.563980349549894</v>
-      </c>
-      <c r="M27">
+        <v>20.431386314286463</v>
+      </c>
+      <c r="N27" s="24">
+        <f>(J27-L27)^2</f>
+        <v>2.4987811930912831</v>
+      </c>
+      <c r="O27" s="28">
         <f t="shared" si="5"/>
-        <v>32.686544780915817</v>
-      </c>
-      <c r="N27" s="24">
-        <f t="shared" si="6"/>
-        <v>27.186000915279834</v>
-      </c>
-      <c r="O27" s="24">
-        <f t="shared" si="7"/>
-        <v>111.8402530908549</v>
+        <v>7.3773994266891546E-2</v>
       </c>
       <c r="W27" s="14">
         <v>113290336</v>
@@ -12598,51 +12603,51 @@
         <v>25.064744000000001</v>
       </c>
       <c r="B28" s="24">
-        <v>46.320999999999998</v>
+        <v>30.302</v>
       </c>
       <c r="C28">
-        <v>34.883000000000003</v>
+        <v>29.727</v>
       </c>
       <c r="D28" s="24">
+        <f t="shared" si="0"/>
+        <v>28.967744141029616</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
-        <v>40.424980452221966</v>
-      </c>
-      <c r="E28">
+        <v>29.732428921792867</v>
+      </c>
+      <c r="F28" s="24">
         <f t="shared" si="2"/>
-        <v>37.976946535103892</v>
-      </c>
-      <c r="F28" s="24">
-        <f t="shared" si="0"/>
-        <v>34.763046507780665</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>9.5725051620813613</v>
+        <v>1.7802386971967958</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="2"/>
+        <v>2.9473191833058079E-5</v>
       </c>
       <c r="I28">
         <v>0.96199999999999997</v>
       </c>
       <c r="J28" s="24">
-        <v>39.914000000000001</v>
+        <v>21.759</v>
       </c>
       <c r="K28">
-        <v>43.262</v>
+        <v>21.347999999999999</v>
       </c>
       <c r="L28" s="24">
+        <f t="shared" si="3"/>
+        <v>22.154454431827023</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="4"/>
-        <v>32.327986307587331</v>
-      </c>
-      <c r="M28">
+        <v>20.372856353745149</v>
+      </c>
+      <c r="N28" s="24">
+        <f>(J28-L28)^2</f>
+        <v>0.15638420765163358</v>
+      </c>
+      <c r="O28" s="28">
         <f t="shared" si="5"/>
-        <v>32.370459281061024</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" si="6"/>
-        <v>57.547603741472521</v>
-      </c>
-      <c r="O28" s="24">
-        <f t="shared" si="7"/>
-        <v>118.62565923230576</v>
+        <v>0.95090513083120354</v>
       </c>
       <c r="W28" s="14">
         <v>114292944</v>
@@ -12680,51 +12685,51 @@
         <v>26.067343999999999</v>
       </c>
       <c r="B29" s="24">
-        <v>48.457000000000001</v>
+        <v>29.234000000000002</v>
       </c>
       <c r="C29">
-        <v>34.883000000000003</v>
+        <v>29.727</v>
       </c>
       <c r="D29" s="24">
+        <f t="shared" si="0"/>
+        <v>28.626594593949054</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="1"/>
-        <v>40.205426186574172</v>
-      </c>
-      <c r="E29">
+        <v>29.375536432539462</v>
+      </c>
+      <c r="F29" s="24">
         <f t="shared" si="2"/>
-        <v>37.60975704726679</v>
-      </c>
-      <c r="F29" s="24">
-        <f t="shared" si="0"/>
-        <v>68.08847039841487</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>7.4352039948190871</v>
+        <v>0.36894132729991641</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="2"/>
+        <v>0.12352663925208812</v>
       </c>
       <c r="I29">
         <v>1.00048</v>
       </c>
       <c r="J29" s="24">
-        <v>39.914000000000001</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="K29">
-        <v>42.616999999999997</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L29" s="24">
+        <f t="shared" si="3"/>
+        <v>22.011205463547636</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="4"/>
-        <v>32.09668301606839</v>
-      </c>
-      <c r="M29">
+        <v>20.323525862006903</v>
+      </c>
+      <c r="N29" s="24">
+        <f>(J29-L29)^2</f>
+        <v>0.66389013663262331</v>
+      </c>
+      <c r="O29" s="28">
         <f t="shared" si="5"/>
-        <v>32.06228585318474</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" si="6"/>
-        <v>61.110444827265631</v>
-      </c>
-      <c r="O29" s="24">
-        <f t="shared" si="7"/>
-        <v>111.40199072098213</v>
+        <v>0.14400062140560338</v>
       </c>
       <c r="W29" s="14">
         <v>115295544</v>
@@ -12762,51 +12767,51 @@
         <v>27.069944</v>
       </c>
       <c r="B30" s="24">
-        <v>47.389000000000003</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="C30">
-        <v>33.594000000000001</v>
+        <v>29.082000000000001</v>
       </c>
       <c r="D30" s="24">
+        <f t="shared" si="0"/>
+        <v>28.304394552220849</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>39.987064353798942</v>
-      </c>
-      <c r="E30">
+        <v>29.036595253952321</v>
+      </c>
+      <c r="F30" s="24">
         <f t="shared" si="2"/>
-        <v>37.246117821688223</v>
-      </c>
-      <c r="F30" s="24">
-        <f t="shared" si="0"/>
-        <v>54.788651310501912</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>13.337964583492724</v>
+        <v>1.455387815628145</v>
+      </c>
+      <c r="G30" s="28">
+        <f t="shared" si="2"/>
+        <v>2.0615909636543198E-3</v>
       </c>
       <c r="I30">
         <v>1.0389600000000001</v>
       </c>
       <c r="J30" s="24">
-        <v>37.777999999999999</v>
+        <v>21.759</v>
       </c>
       <c r="K30">
-        <v>42.616999999999997</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L30" s="24">
+        <f t="shared" si="3"/>
+        <v>21.881978296334847</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="4"/>
-        <v>31.869977238996345</v>
-      </c>
-      <c r="M30">
+        <v>20.281948909064667</v>
+      </c>
+      <c r="N30" s="24">
+        <f>(J30-L30)^2</f>
+        <v>1.5123661369421258E-2</v>
+      </c>
+      <c r="O30" s="28">
         <f t="shared" si="5"/>
-        <v>31.761826446813203</v>
-      </c>
-      <c r="N30" s="24">
-        <f t="shared" si="6"/>
-        <v>34.904732944537237</v>
-      </c>
-      <c r="O30" s="24">
-        <f t="shared" si="7"/>
-        <v>117.83479286980602</v>
+        <v>0.1772840211778336</v>
       </c>
       <c r="W30" s="14">
         <v>116298144</v>
@@ -12844,51 +12849,51 @@
         <v>28.072544000000001</v>
       </c>
       <c r="B31" s="24">
-        <v>47.389000000000003</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="C31">
-        <v>32.948999999999998</v>
+        <v>29.082000000000001</v>
       </c>
       <c r="D31" s="24">
+        <f t="shared" si="0"/>
+        <v>28.000091445920255</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
-        <v>39.769888477610557</v>
-      </c>
-      <c r="E31">
+        <v>28.714702454296141</v>
+      </c>
+      <c r="F31" s="24">
         <f t="shared" si="2"/>
-        <v>36.885994531780646</v>
-      </c>
-      <c r="F31" s="24">
-        <f t="shared" si="0"/>
-        <v>58.050860390607617</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>15.499925943270727</v>
+        <v>0.81376897680249782</v>
+      </c>
+      <c r="G31" s="28">
+        <f t="shared" si="2"/>
+        <v>0.13490748708007885</v>
       </c>
       <c r="I31">
         <v>1.07744</v>
       </c>
       <c r="J31" s="24">
-        <v>39.914000000000001</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="K31">
-        <v>42.616999999999997</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L31" s="24">
+        <f t="shared" si="3"/>
+        <v>21.765400418347816</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="4"/>
-        <v>31.647777593585637</v>
-      </c>
-      <c r="M31">
+        <v>20.246906829510031</v>
+      </c>
+      <c r="N31" s="24">
+        <f>(J31-L31)^2</f>
+        <v>1.1543362589459654</v>
+      </c>
+      <c r="O31" s="28">
         <f t="shared" si="5"/>
-        <v>31.468887968959194</v>
-      </c>
-      <c r="N31" s="24">
-        <f t="shared" si="6"/>
-        <v>68.330432872306886</v>
-      </c>
-      <c r="O31" s="24">
-        <f t="shared" si="7"/>
-        <v>124.2804018566367</v>
+        <v>0.20802098016759102</v>
       </c>
       <c r="W31" s="14">
         <v>117300744</v>
@@ -12926,51 +12931,51 @@
         <v>29.075151999999999</v>
       </c>
       <c r="B32" s="24">
-        <v>48.457000000000001</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="C32">
-        <v>32.948999999999998</v>
+        <v>29.727</v>
       </c>
       <c r="D32" s="24">
+        <f t="shared" si="0"/>
+        <v>27.712688942874529</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="1"/>
-        <v>39.553890398095994</v>
-      </c>
-      <c r="E32">
+        <v>28.408998141465378</v>
+      </c>
+      <c r="F32" s="24">
         <f t="shared" si="2"/>
-        <v>36.529350350921675</v>
-      </c>
-      <c r="F32" s="24">
-        <f t="shared" si="0"/>
-        <v>79.265360583515317</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>12.818908635344973</v>
+        <v>0.3778424964922068</v>
+      </c>
+      <c r="G32" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7371288991007172</v>
       </c>
       <c r="I32">
         <v>1.11592</v>
       </c>
       <c r="J32" s="24">
-        <v>39.914000000000001</v>
+        <v>21.759</v>
       </c>
       <c r="K32">
-        <v>41.972999999999999</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L32" s="24">
+        <f t="shared" si="3"/>
+        <v>21.660233664877314</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="4"/>
-        <v>31.429994513426394</v>
-      </c>
-      <c r="M32">
+        <v>20.217372502133529</v>
+      </c>
+      <c r="N32" s="24">
+        <f>(J32-L32)^2</f>
+        <v>9.7547889535667971E-3</v>
+      </c>
+      <c r="O32" s="28">
         <f t="shared" si="5"/>
-        <v>31.183282160029002</v>
-      </c>
-      <c r="N32" s="24">
-        <f t="shared" si="6"/>
-        <v>71.978349096211076</v>
-      </c>
-      <c r="O32" s="24">
-        <f t="shared" si="7"/>
-        <v>116.4180110661884</v>
+        <v>0.23583406668404905</v>
       </c>
       <c r="W32" s="14">
         <v>118303352</v>
@@ -13008,51 +13013,51 @@
         <v>30.077767999999999</v>
       </c>
       <c r="B33" s="24">
-        <v>48.457000000000001</v>
+        <v>28.166</v>
       </c>
       <c r="C33">
-        <v>31.66</v>
+        <v>28.437000000000001</v>
       </c>
       <c r="D33" s="24">
+        <f t="shared" si="0"/>
+        <v>27.441248529103895</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
-        <v>39.339063737131326</v>
-      </c>
-      <c r="E33">
+        <v>28.1186682909903</v>
+      </c>
+      <c r="F33" s="24">
         <f t="shared" si="2"/>
-        <v>36.176151695249239</v>
-      </c>
-      <c r="F33" s="24">
-        <f t="shared" si="0"/>
-        <v>83.136761693735579</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>20.395626134502571</v>
+        <v>0.52526469456606861</v>
+      </c>
+      <c r="G33" s="28">
+        <f t="shared" si="2"/>
+        <v>0.10133507696103715</v>
       </c>
       <c r="I33">
         <v>1.1544000000000001</v>
       </c>
       <c r="J33" s="24">
-        <v>38.845999999999997</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="K33">
-        <v>40.683999999999997</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="L33" s="24">
+        <f t="shared" si="3"/>
+        <v>21.565361067893214</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="4"/>
-        <v>31.216540212381126</v>
-      </c>
-      <c r="M33">
+        <v>20.192480243892334</v>
+      </c>
+      <c r="N33" s="24">
+        <f>(J33-L33)^2</f>
+        <v>1.5892105171433393</v>
+      </c>
+      <c r="O33" s="28">
         <f t="shared" si="5"/>
-        <v>30.904825472835725</v>
-      </c>
-      <c r="N33" s="24">
-        <f t="shared" si="6"/>
-        <v>58.208656650893381</v>
-      </c>
-      <c r="O33" s="24">
-        <f t="shared" si="7"/>
-        <v>95.632254432738577</v>
+        <v>1.7816975509556594E-2</v>
       </c>
       <c r="W33" s="14">
         <v>119305968</v>
@@ -13090,51 +13095,51 @@
         <v>31.080376000000001</v>
       </c>
       <c r="B34" s="24">
-        <v>46.320999999999998</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="C34">
-        <v>32.305</v>
+        <v>28.437000000000001</v>
       </c>
       <c r="D34" s="24">
+        <f t="shared" si="0"/>
+        <v>27.18488777605063</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="1"/>
-        <v>39.125405551443805</v>
-      </c>
-      <c r="E34">
+        <v>27.842944092468734</v>
+      </c>
+      <c r="F34" s="24">
         <f t="shared" si="2"/>
-        <v>35.826370859683976</v>
-      </c>
-      <c r="F34" s="24">
-        <f t="shared" si="0"/>
-        <v>51.776579468092699</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>12.400052731431469</v>
+        <v>7.5494856270245719E-3</v>
+      </c>
+      <c r="G34" s="28">
+        <f t="shared" si="2"/>
+        <v>0.35290242127279725</v>
       </c>
       <c r="I34">
         <v>1.1928799999999999</v>
       </c>
       <c r="J34" s="24">
-        <v>39.914000000000001</v>
+        <v>21.759</v>
       </c>
       <c r="K34">
-        <v>31.66</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="L34" s="24">
+        <f t="shared" si="3"/>
+        <v>21.479774992812626</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="4"/>
-        <v>31.007328649199057</v>
-      </c>
-      <c r="M34">
+        <v>20.171500435805044</v>
+      </c>
+      <c r="N34" s="24">
+        <f>(J34-L34)^2</f>
+        <v>7.7966604638789364E-2</v>
+      </c>
+      <c r="O34" s="28">
         <f t="shared" si="5"/>
-        <v>30.633338954640973</v>
-      </c>
-      <c r="N34" s="24">
-        <f t="shared" si="6"/>
-        <v>79.328794551178333</v>
-      </c>
-      <c r="O34" s="24">
-        <f t="shared" si="7"/>
-        <v>1.0540329020576911</v>
+        <v>1.2656348056324498E-2</v>
       </c>
       <c r="W34" s="14">
         <v>120308576</v>
@@ -13172,51 +13177,51 @@
         <v>32.082991999999997</v>
       </c>
       <c r="B35" s="24">
-        <v>45.253</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="C35">
-        <v>31.66</v>
+        <v>28.437000000000001</v>
       </c>
       <c r="D35" s="24">
+        <f t="shared" si="0"/>
+        <v>26.942765080020187</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="1"/>
-        <v>38.912906094401528</v>
-      </c>
-      <c r="E35">
+        <v>27.581086598251947</v>
+      </c>
+      <c r="F35" s="24">
         <f t="shared" si="2"/>
-        <v>35.479969242800493</v>
-      </c>
-      <c r="F35" s="24">
-        <f t="shared" ref="F35:F66" si="8">(D35-B35)^2</f>
-        <v>40.196790731806885</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
-        <v>14.592165015941772</v>
+        <v>2.4097880381138491E-2</v>
+      </c>
+      <c r="G35" s="28">
+        <f t="shared" si="2"/>
+        <v>0.73258775129192655</v>
       </c>
       <c r="I35">
         <v>1.23136</v>
       </c>
       <c r="J35" s="24">
-        <v>36.71</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="K35">
-        <v>28.437000000000001</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="L35" s="24">
+        <f t="shared" si="3"/>
+        <v>21.402566436490222</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="4"/>
-        <v>30.802275492833729</v>
-      </c>
-      <c r="M35">
+        <v>20.153818137031077</v>
+      </c>
+      <c r="N35" s="24">
+        <f>(J35-L35)^2</f>
+        <v>0.50632679353939458</v>
+      </c>
+      <c r="O35" s="28">
         <f t="shared" si="5"/>
-        <v>30.368648132149247</v>
-      </c>
-      <c r="N35" s="24">
-        <f t="shared" si="6"/>
-        <v>34.901208852572964</v>
-      </c>
-      <c r="O35" s="24">
-        <f t="shared" si="7"/>
-        <v>3.7312645064356684</v>
+        <v>8.9904791100439696E-3</v>
       </c>
       <c r="W35" s="14">
         <v>121311192</v>
@@ -13254,51 +13259,51 @@
         <v>33.085608000000001</v>
       </c>
       <c r="B36" s="24">
-        <v>47.389000000000003</v>
+        <v>26.03</v>
       </c>
       <c r="C36">
-        <v>31.015999999999998</v>
+        <v>27.792999999999999</v>
       </c>
       <c r="D36" s="24">
-        <f t="shared" ref="D36:D67" si="9">$R$4+($R$3-$R$4)*EXP(-A36/$R$5)</f>
-        <v>38.701560772852716</v>
+        <f t="shared" ref="D36:D55" si="6">$R$4+($R$3-$R$4)*EXP(-A36/$R$5)</f>
+        <v>26.714091548764102</v>
       </c>
       <c r="E36">
+        <f t="shared" si="1"/>
+        <v>27.332400460864882</v>
+      </c>
+      <c r="F36" s="24">
         <f t="shared" si="2"/>
-        <v>35.136916948700758</v>
-      </c>
-      <c r="F36" s="24">
-        <f t="shared" si="8"/>
-        <v>75.471600325377452</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
-        <v>16.981956498089183</v>
+        <v>0.46798124709046673</v>
+      </c>
+      <c r="G36" s="28">
+        <f t="shared" si="2"/>
+        <v>0.21215193545148237</v>
       </c>
       <c r="I36">
         <v>1.2698400000000001</v>
       </c>
       <c r="J36" s="24">
-        <v>34.573999999999998</v>
+        <v>21.759</v>
       </c>
       <c r="K36">
-        <v>27.148</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L36" s="24">
+        <f t="shared" si="3"/>
+        <v>21.332915372765463</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="4"/>
-        <v>30.601298088450054</v>
-      </c>
-      <c r="M36">
+        <v>20.138915060290291</v>
+      </c>
+      <c r="N36" s="24">
+        <f>(J36-L36)^2</f>
+        <v>0.18154810956559481</v>
+      </c>
+      <c r="O36" s="28">
         <f t="shared" si="5"/>
-        <v>30.110582899381079</v>
-      </c>
-      <c r="N36" s="24">
-        <f t="shared" si="6"/>
-        <v>15.782360478032578</v>
-      </c>
-      <c r="O36" s="24">
-        <f t="shared" si="7"/>
-        <v>8.7768974357052016</v>
+        <v>0.31819181920730549</v>
       </c>
       <c r="W36" s="14">
         <v>122313808</v>
@@ -13336,51 +13341,51 @@
         <v>34.088208000000002</v>
       </c>
       <c r="B37" s="24">
-        <v>47.389000000000003</v>
+        <v>26.03</v>
       </c>
       <c r="C37">
-        <v>30.370999999999999</v>
+        <v>27.792999999999999</v>
       </c>
       <c r="D37" s="24">
-        <f t="shared" si="9"/>
-        <v>38.491366663669417</v>
+        <f t="shared" si="6"/>
+        <v>26.498123471877353</v>
       </c>
       <c r="E37">
+        <f t="shared" si="1"/>
+        <v>27.096226837396856</v>
+      </c>
+      <c r="F37" s="24">
         <f t="shared" si="2"/>
-        <v>34.797186988403858</v>
-      </c>
-      <c r="F37" s="24">
-        <f t="shared" si="8"/>
-        <v>79.16787898778135</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
-        <v>19.591131256315627</v>
+        <v>0.21913958492250568</v>
+      </c>
+      <c r="G37" s="28">
+        <f t="shared" si="2"/>
+        <v>0.48549284012398691</v>
       </c>
       <c r="I37">
         <v>1.3083199999999999</v>
       </c>
       <c r="J37" s="24">
-        <v>33.506</v>
+        <v>21.759</v>
       </c>
       <c r="K37">
-        <v>26.504000000000001</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L37" s="24">
+        <f t="shared" si="3"/>
+        <v>21.270082043027596</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="4"/>
-        <v>30.404315424106986</v>
-      </c>
-      <c r="M37">
+        <v>20.126354380302871</v>
+      </c>
+      <c r="N37" s="24">
+        <f>(J37-L37)^2</f>
+        <v>0.23904076865006973</v>
+      </c>
+      <c r="O37" s="28">
         <f t="shared" si="5"/>
-        <v>29.858977408352892</v>
-      </c>
-      <c r="N37" s="24">
-        <f t="shared" si="6"/>
-        <v>9.6204472083326245</v>
-      </c>
-      <c r="O37" s="24">
-        <f t="shared" si="7"/>
-        <v>11.25587341055828</v>
+        <v>0.33252017071588519</v>
       </c>
       <c r="W37" s="14">
         <v>123316408</v>
@@ -13418,51 +13423,51 @@
         <v>35.090815999999997</v>
       </c>
       <c r="B38" s="24">
-        <v>47.389000000000003</v>
+        <v>26.03</v>
       </c>
       <c r="C38">
-        <v>30.370999999999999</v>
+        <v>27.792999999999999</v>
       </c>
       <c r="D38" s="24">
-        <f t="shared" si="9"/>
-        <v>38.282312487369069</v>
+        <f t="shared" si="6"/>
+        <v>26.294149984291877</v>
       </c>
       <c r="E38">
+        <f t="shared" si="1"/>
+        <v>26.871930750786156</v>
+      </c>
+      <c r="F38" s="24">
         <f t="shared" si="2"/>
-        <v>34.460739119579742</v>
-      </c>
-      <c r="F38" s="24">
-        <f t="shared" si="8"/>
-        <v>82.931757452708183</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
-        <v>16.725966066220892</v>
+        <v>6.9775214201398442E-2</v>
+      </c>
+      <c r="G38" s="28">
+        <f t="shared" si="2"/>
+        <v>0.84836856184735332</v>
       </c>
       <c r="I38">
         <v>1.3468</v>
       </c>
       <c r="J38" s="24">
-        <v>32.438000000000002</v>
+        <v>19.623000000000001</v>
       </c>
       <c r="K38">
-        <v>25.859000000000002</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L38" s="24">
+        <f t="shared" si="3"/>
+        <v>21.213399099296126</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="4"/>
-        <v>30.21124809810242</v>
-      </c>
-      <c r="M38">
+        <v>20.115767929968449</v>
+      </c>
+      <c r="N38" s="24">
+        <f>(J38-L38)^2</f>
+        <v>2.5293692950419251</v>
+      </c>
+      <c r="O38" s="28">
         <f t="shared" si="5"/>
-        <v>29.613669962493233</v>
-      </c>
-      <c r="N38" s="24">
-        <f t="shared" si="6"/>
-        <v>4.9584240326045013</v>
-      </c>
-      <c r="O38" s="24">
-        <f t="shared" si="7"/>
-        <v>14.097546527248925</v>
+        <v>0.34484150407353986</v>
       </c>
       <c r="W38" s="14">
         <v>124319016</v>
@@ -13500,51 +13505,51 @@
         <v>36.093432</v>
       </c>
       <c r="B39" s="24">
-        <v>47.389000000000003</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="C39">
-        <v>30.370999999999999</v>
+        <v>27.792999999999999</v>
       </c>
       <c r="D39" s="24">
-        <f t="shared" si="9"/>
-        <v>38.074392070871596</v>
+        <f t="shared" si="6"/>
+        <v>26.101505009798977</v>
       </c>
       <c r="E39">
+        <f t="shared" si="1"/>
+        <v>26.658914949063128</v>
+      </c>
+      <c r="F39" s="24">
         <f t="shared" si="2"/>
-        <v>34.127541660178252</v>
-      </c>
-      <c r="F39" s="24">
-        <f t="shared" si="8"/>
-        <v>86.761920873381783</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="3"/>
-        <v>14.111605244654791</v>
+        <v>0.99300226549573456</v>
+      </c>
+      <c r="G39" s="28">
+        <f t="shared" si="2"/>
+        <v>1.2861489027584863</v>
       </c>
       <c r="I39">
         <v>1.3852800000000001</v>
       </c>
       <c r="J39" s="24">
-        <v>30.302</v>
+        <v>21.759</v>
       </c>
       <c r="K39">
-        <v>25.859000000000002</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L39" s="24">
+        <f t="shared" si="3"/>
+        <v>21.162264516369053</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="4"/>
-        <v>30.022018286967189</v>
-      </c>
-      <c r="M39">
+        <v>20.106845408990651</v>
+      </c>
+      <c r="N39" s="24">
+        <f>(J39-L39)^2</f>
+        <v>0.35609323742426086</v>
+      </c>
+      <c r="O39" s="28">
         <f t="shared" si="5"/>
-        <v>29.374502912727028</v>
-      </c>
-      <c r="N39" s="24">
-        <f t="shared" si="6"/>
-        <v>7.8389759632787229E-2</v>
-      </c>
-      <c r="O39" s="24">
-        <f t="shared" si="7"/>
-        <v>12.358760729392204</v>
+        <v>0.35540029638152348</v>
       </c>
       <c r="W39" s="14">
         <v>125321632</v>
@@ -13582,51 +13587,51 @@
         <v>37.096048000000003</v>
       </c>
       <c r="B40" s="24">
-        <v>46.320999999999998</v>
+        <v>26.03</v>
       </c>
       <c r="C40">
-        <v>29.727</v>
+        <v>27.148</v>
       </c>
       <c r="D40" s="24">
-        <f t="shared" si="9"/>
-        <v>37.867600920000669</v>
+        <f t="shared" si="6"/>
+        <v>25.919560866113702</v>
       </c>
       <c r="E40">
+        <f t="shared" si="1"/>
+        <v>26.456613781050532</v>
+      </c>
+      <c r="F40" s="24">
         <f t="shared" si="2"/>
-        <v>33.797565853874978</v>
-      </c>
-      <c r="F40" s="24">
-        <f t="shared" si="8"/>
-        <v>71.459956005733503</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="3"/>
-        <v>16.569506370732928</v>
+        <v>1.2196802293555851E-2</v>
+      </c>
+      <c r="G40" s="28">
+        <f t="shared" si="2"/>
+        <v>0.47801490375324163</v>
       </c>
       <c r="I40">
         <v>1.4237599999999999</v>
       </c>
       <c r="J40" s="24">
-        <v>30.302</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="K40">
-        <v>24.57</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L40" s="24">
+        <f t="shared" si="3"/>
+        <v>21.116135197759334</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="4"/>
-        <v>29.836549714095213</v>
-      </c>
-      <c r="M40">
+        <v>20.099325288640173</v>
+      </c>
+      <c r="N40" s="24">
+        <f>(J40-L40)^2</f>
+        <v>0.18073993637386904</v>
+      </c>
+      <c r="O40" s="28">
         <f t="shared" si="5"/>
-        <v>29.141322556160947</v>
-      </c>
-      <c r="N40" s="24">
-        <f t="shared" si="6"/>
-        <v>0.21664396864884763</v>
-      </c>
-      <c r="O40" s="24">
-        <f t="shared" si="7"/>
-        <v>20.896989912465855</v>
+        <v>0.36442315713536921</v>
       </c>
       <c r="W40" s="14">
         <v>126324248</v>
@@ -13664,51 +13669,51 @@
         <v>38.098647999999997</v>
       </c>
       <c r="B41" s="24">
-        <v>46.320999999999998</v>
+        <v>27.097999999999999</v>
       </c>
       <c r="C41">
-        <v>29.727</v>
+        <v>26.504000000000001</v>
       </c>
       <c r="D41" s="24">
-        <f t="shared" si="9"/>
-        <v>37.661936174617274</v>
+        <f t="shared" si="6"/>
+        <v>25.747725819894416</v>
       </c>
       <c r="E41">
+        <f t="shared" si="1"/>
+        <v>26.264491291299585</v>
+      </c>
+      <c r="F41" s="24">
         <f t="shared" si="2"/>
-        <v>33.470785740456598</v>
-      </c>
-      <c r="F41" s="24">
-        <f t="shared" si="8"/>
-        <v>74.979386332051689</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
-        <v>14.015931670446159</v>
+        <v>1.8232403614598034</v>
+      </c>
+      <c r="G41" s="28">
+        <f t="shared" si="2"/>
+        <v>5.736442154334092E-2</v>
       </c>
       <c r="I41">
         <v>1.46224</v>
       </c>
       <c r="J41" s="24">
-        <v>31.37</v>
+        <v>19.623000000000001</v>
       </c>
       <c r="K41">
-        <v>23.925999999999998</v>
+        <v>20.059000000000001</v>
       </c>
       <c r="L41" s="24">
+        <f t="shared" si="3"/>
+        <v>21.074521207508713</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="4"/>
-        <v>29.654767618997184</v>
-      </c>
-      <c r="M41">
+        <v>20.092987146065173</v>
+      </c>
+      <c r="N41" s="24">
+        <f>(J41-L41)^2</f>
+        <v>2.1069138158475496</v>
+      </c>
+      <c r="O41" s="28">
         <f t="shared" si="5"/>
-        <v>28.913979037304827</v>
-      </c>
-      <c r="N41" s="24">
-        <f t="shared" si="6"/>
-        <v>2.9420221208405932</v>
-      </c>
-      <c r="O41" s="24">
-        <f t="shared" si="7"/>
-        <v>24.879934876592404</v>
+        <v>1.155126097655348E-3</v>
       </c>
       <c r="W41" s="14">
         <v>127326848</v>
@@ -13746,51 +13751,51 @@
         <v>39.101255999999999</v>
       </c>
       <c r="B42" s="24">
-        <v>47.389000000000003</v>
+        <v>24.962</v>
       </c>
       <c r="C42">
-        <v>29.082000000000001</v>
+        <v>27.148</v>
       </c>
       <c r="D42" s="24">
-        <f t="shared" si="9"/>
-        <v>37.457386798294607</v>
+        <f t="shared" si="6"/>
+        <v>25.585434271198828</v>
       </c>
       <c r="E42">
+        <f t="shared" si="1"/>
+        <v>26.082030938749348</v>
+      </c>
+      <c r="F42" s="24">
         <f t="shared" si="2"/>
-        <v>33.147162611552588</v>
-      </c>
-      <c r="F42" s="24">
-        <f t="shared" si="8"/>
-        <v>98.636940788288911</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
-        <v>16.525547058365049</v>
+        <v>0.38867029050521423</v>
+      </c>
+      <c r="G42" s="28">
+        <f t="shared" si="2"/>
+        <v>1.1362900395435955</v>
       </c>
       <c r="I42">
         <v>1.5007200000000001</v>
       </c>
       <c r="J42" s="24">
-        <v>29.234000000000002</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="K42">
-        <v>23.925999999999998</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="L42" s="24">
+        <f t="shared" si="3"/>
+        <v>21.036980566615441</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="4"/>
-        <v>29.47659872716536</v>
-      </c>
-      <c r="M42">
+        <v>20.087645203459367</v>
+      </c>
+      <c r="N42" s="24">
+        <f>(J42-L42)^2</f>
+        <v>0.11970255247554204</v>
+      </c>
+      <c r="O42" s="28">
         <f t="shared" si="5"/>
-        <v>28.692326251765685</v>
-      </c>
-      <c r="N42" s="24">
-        <f t="shared" si="6"/>
-        <v>5.8854142422251926E-2</v>
-      </c>
-      <c r="O42" s="24">
-        <f t="shared" si="7"/>
-        <v>22.717865938270741</v>
+        <v>0.37866152562556327</v>
       </c>
       <c r="W42" s="14">
         <v>128329456</v>
@@ -13828,51 +13833,40 @@
         <v>40.103864000000002</v>
       </c>
       <c r="B43" s="24">
-        <v>48.457000000000001</v>
+        <v>24.962</v>
       </c>
       <c r="C43">
-        <v>29.082000000000001</v>
+        <v>26.504000000000001</v>
       </c>
       <c r="D43" s="24">
-        <f t="shared" si="9"/>
-        <v>37.253948369830795</v>
+        <f t="shared" si="6"/>
+        <v>25.432157444760431</v>
       </c>
       <c r="E43">
+        <f t="shared" si="1"/>
+        <v>25.908748218226126</v>
+      </c>
+      <c r="F43" s="24">
         <f t="shared" si="2"/>
-        <v>32.826668537651159</v>
-      </c>
-      <c r="F43" s="24">
-        <f t="shared" si="8"/>
-        <v>125.5083658282369</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="3"/>
-        <v>14.022542456874463</v>
+        <v>0.22104802286365824</v>
+      </c>
+      <c r="G43" s="28">
+        <f t="shared" si="2"/>
+        <v>0.35432468370497311</v>
       </c>
       <c r="I43">
         <v>1.5391999999999999</v>
       </c>
-      <c r="J43" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="K43">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="L43" s="24">
+        <v>20.059000000000001</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="4"/>
-        <v>29.301971220537375</v>
-      </c>
-      <c r="M43">
+        <v>20.083142882713805</v>
+      </c>
+      <c r="O43" s="28">
         <f t="shared" si="5"/>
-        <v>28.476221752352384</v>
-      </c>
-      <c r="N43" s="24">
-        <f t="shared" si="6"/>
-        <v>4.8574891409570107</v>
-      </c>
-      <c r="O43" s="24">
-        <f t="shared" si="7"/>
-        <v>20.704517995580812</v>
+        <v>5.8287878573248222E-4</v>
       </c>
       <c r="W43" s="14">
         <v>129332064</v>
@@ -13910,51 +13904,40 @@
         <v>41.106471999999997</v>
       </c>
       <c r="B44" s="24">
-        <v>47.389000000000003</v>
+        <v>26.03</v>
       </c>
       <c r="C44">
-        <v>29.727</v>
+        <v>26.504000000000001</v>
       </c>
       <c r="D44" s="24">
-        <f t="shared" si="9"/>
-        <v>37.051614855449728</v>
+        <f t="shared" si="6"/>
+        <v>25.287394604601122</v>
       </c>
       <c r="E44">
+        <f t="shared" si="1"/>
+        <v>25.744181501061306</v>
+      </c>
+      <c r="F44" s="24">
         <f t="shared" si="2"/>
-        <v>32.509273264470927</v>
-      </c>
-      <c r="F44" s="24">
-        <f t="shared" si="8"/>
-        <v>106.86153162676871</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="3"/>
-        <v>7.7410445181897085</v>
+        <v>0.55146277327552562</v>
+      </c>
+      <c r="G44" s="28">
+        <f t="shared" si="2"/>
+        <v>0.57732415132945292</v>
       </c>
       <c r="I44">
         <v>1.57768</v>
       </c>
-      <c r="J44" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="K44">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="L44" s="24">
+        <v>20.702999999999999</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="4"/>
-        <v>29.130814708547106</v>
-      </c>
-      <c r="M44">
+        <v>20.079348215943359</v>
+      </c>
+      <c r="O44" s="28">
         <f t="shared" si="5"/>
-        <v>28.265526657530636</v>
-      </c>
-      <c r="N44" s="24">
-        <f t="shared" si="6"/>
-        <v>4.1323356392854613</v>
-      </c>
-      <c r="O44" s="24">
-        <f t="shared" si="7"/>
-        <v>24.845505999633541</v>
+        <v>0.38894154775703077</v>
       </c>
       <c r="W44" s="14">
         <v>130334672</v>
@@ -13992,51 +13975,40 @@
         <v>42.109079999999999</v>
       </c>
       <c r="B45" s="24">
-        <v>46.320999999999998</v>
+        <v>26.03</v>
       </c>
       <c r="C45">
-        <v>28.437000000000001</v>
+        <v>26.504000000000001</v>
       </c>
       <c r="D45" s="24">
-        <f t="shared" si="9"/>
-        <v>36.850380254145875</v>
+        <f t="shared" si="6"/>
+        <v>25.150672828857594</v>
       </c>
       <c r="E45">
+        <f t="shared" si="1"/>
+        <v>25.58789237819532</v>
+      </c>
+      <c r="F45" s="24">
         <f t="shared" si="2"/>
-        <v>32.194946830253784</v>
-      </c>
-      <c r="F45" s="24">
-        <f t="shared" si="8"/>
-        <v>89.692638370562008</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="3"/>
-        <v>14.122164379014452</v>
+        <v>0.77321627390930769</v>
+      </c>
+      <c r="G45" s="28">
+        <f t="shared" si="2"/>
+        <v>0.83925317472862815</v>
       </c>
       <c r="I45">
         <v>1.61616</v>
       </c>
-      <c r="J45" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="K45">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="L45" s="24">
+        <v>20.059000000000001</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="4"/>
-        <v>28.963060199750949</v>
-      </c>
-      <c r="M45">
+        <v>20.076149977365411</v>
+      </c>
+      <c r="O45" s="28">
         <f t="shared" si="5"/>
-        <v>28.060105562169518</v>
-      </c>
-      <c r="N45" s="24">
-        <f t="shared" si="6"/>
-        <v>3.4784495486950524</v>
-      </c>
-      <c r="O45" s="24">
-        <f t="shared" si="7"/>
-        <v>22.839849974359637</v>
+        <v>2.9412172363406836E-4</v>
       </c>
       <c r="W45" s="14">
         <v>131337280</v>
@@ -14074,51 +14046,29 @@
         <v>43.11168</v>
       </c>
       <c r="B46" s="24">
-        <v>45.253</v>
+        <v>24.962</v>
       </c>
       <c r="C46">
-        <v>28.437000000000001</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="D46" s="24">
-        <f t="shared" si="9"/>
-        <v>36.650240190130177</v>
+        <f t="shared" si="6"/>
+        <v>25.021546465976851</v>
       </c>
       <c r="E46">
+        <f t="shared" si="1"/>
+        <v>25.439465646283683</v>
+      </c>
+      <c r="F46" s="24">
         <f t="shared" si="2"/>
-        <v>31.883662034710351</v>
-      </c>
-      <c r="F46" s="24">
-        <f t="shared" si="8"/>
-        <v>74.007476346311478</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="3"/>
-        <v>11.879479181513689</v>
+        <v>3.5457816103322717E-3</v>
+      </c>
+      <c r="G46" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17600907394816945</v>
       </c>
       <c r="I46">
         <v>1.6546400000000001</v>
-      </c>
-      <c r="J46" s="24">
-        <v>27.097999999999999</v>
-      </c>
-      <c r="K46">
-        <v>22.637</v>
-      </c>
-      <c r="L46" s="24">
-        <f t="shared" si="4"/>
-        <v>28.798640074018078</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="5"/>
-        <v>27.859826450522135</v>
-      </c>
-      <c r="N46" s="24">
-        <f t="shared" si="6"/>
-        <v>2.8921766613562161</v>
-      </c>
-      <c r="O46" s="24">
-        <f t="shared" si="7"/>
-        <v>27.277916132273639</v>
       </c>
       <c r="W46" s="14">
         <v>132339880</v>
@@ -14156,51 +14106,29 @@
         <v>44.114288000000002</v>
       </c>
       <c r="B47" s="24">
-        <v>43.116999999999997</v>
+        <v>26.03</v>
       </c>
       <c r="C47">
-        <v>28.437000000000001</v>
+        <v>26.504000000000001</v>
       </c>
       <c r="D47" s="24">
-        <f t="shared" si="9"/>
-        <v>36.451185533507932</v>
+        <f t="shared" si="6"/>
+        <v>24.899591615261468</v>
       </c>
       <c r="E47">
+        <f t="shared" si="1"/>
+        <v>25.298503524318765</v>
+      </c>
+      <c r="F47" s="24">
         <f t="shared" si="2"/>
-        <v>31.575384525224845</v>
-      </c>
-      <c r="F47" s="24">
-        <f t="shared" si="8"/>
-        <v>44.433082501694898</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="3"/>
-        <v>9.8494574281707656</v>
+        <v>1.2778231162871805</v>
+      </c>
+      <c r="G47" s="28">
+        <f t="shared" si="2"/>
+        <v>1.4532217528798825</v>
       </c>
       <c r="I47">
         <v>1.69312</v>
-      </c>
-      <c r="J47" s="24">
-        <v>26.03</v>
-      </c>
-      <c r="K47">
-        <v>22.637</v>
-      </c>
-      <c r="L47" s="24">
-        <f t="shared" si="4"/>
-        <v>28.637488055273455</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="5"/>
-        <v>27.664560611384484</v>
-      </c>
-      <c r="N47" s="24">
-        <f t="shared" si="6"/>
-        <v>6.7989939583937362</v>
-      </c>
-      <c r="O47" s="24">
-        <f t="shared" si="7"/>
-        <v>25.276365701144723</v>
       </c>
       <c r="W47" s="14">
         <v>133342488</v>
@@ -14238,51 +14166,29 @@
         <v>45.116895999999997</v>
       </c>
       <c r="B48" s="24">
-        <v>43.116999999999997</v>
+        <v>24.962</v>
       </c>
       <c r="C48">
-        <v>27.792999999999999</v>
+        <v>26.504000000000001</v>
       </c>
       <c r="D48" s="24">
-        <f t="shared" si="9"/>
-        <v>36.253211981842099</v>
+        <f t="shared" si="6"/>
+        <v>24.784410925714383</v>
       </c>
       <c r="E48">
+        <f t="shared" si="1"/>
+        <v>25.164631701517802</v>
+      </c>
+      <c r="F48" s="24">
         <f t="shared" si="2"/>
-        <v>31.270087696652062</v>
-      </c>
-      <c r="F48" s="24">
-        <f t="shared" si="8"/>
-        <v>47.111585958207925</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="3"/>
-        <v>12.090138850209151</v>
+        <v>3.1537879305622386E-2</v>
+      </c>
+      <c r="G48" s="28">
+        <f t="shared" si="2"/>
+        <v>1.7939074389791017</v>
       </c>
       <c r="I48">
         <v>1.7316</v>
-      </c>
-      <c r="J48" s="24">
-        <v>27.097999999999999</v>
-      </c>
-      <c r="K48">
-        <v>22.637</v>
-      </c>
-      <c r="L48" s="24">
-        <f t="shared" si="4"/>
-        <v>28.479539184782624</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="5"/>
-        <v>27.474182555378015</v>
-      </c>
-      <c r="N48" s="24">
-        <f t="shared" si="6"/>
-        <v>1.9086505190898395</v>
-      </c>
-      <c r="O48" s="24">
-        <f t="shared" si="7"/>
-        <v>23.398335074053374</v>
       </c>
       <c r="W48" s="14">
         <v>134345096</v>
@@ -14320,51 +14226,29 @@
         <v>46.119503999999999</v>
       </c>
       <c r="B49" s="24">
-        <v>42.048999999999999</v>
+        <v>24.962</v>
       </c>
       <c r="C49">
-        <v>27.792999999999999</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="D49" s="24">
-        <f t="shared" si="9"/>
-        <v>36.056313663439198</v>
+        <f t="shared" si="6"/>
+        <v>24.675628116611495</v>
       </c>
       <c r="E49">
+        <f t="shared" si="1"/>
+        <v>25.037493540639993</v>
+      </c>
+      <c r="F49" s="24">
         <f t="shared" si="2"/>
-        <v>30.967742729313532</v>
-      </c>
-      <c r="F49" s="24">
-        <f t="shared" si="8"/>
-        <v>35.912289528402518</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="3"/>
-        <v>10.078991397329137</v>
+        <v>8.2008855595479213E-2</v>
+      </c>
+      <c r="G49" s="28">
+        <f t="shared" si="2"/>
+        <v>0.67487286277021807</v>
       </c>
       <c r="I49">
         <v>1.7700800000000001</v>
-      </c>
-      <c r="J49" s="24">
-        <v>23.893999999999998</v>
-      </c>
-      <c r="K49">
-        <v>22.637</v>
-      </c>
-      <c r="L49" s="24">
-        <f t="shared" si="4"/>
-        <v>28.324729794967503</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="5"/>
-        <v>27.288569934302735</v>
-      </c>
-      <c r="N49" s="24">
-        <f t="shared" si="6"/>
-        <v>19.631366516012786</v>
-      </c>
-      <c r="O49" s="24">
-        <f t="shared" si="7"/>
-        <v>21.637102853709152</v>
       </c>
       <c r="W49" s="14">
         <v>135347704</v>
@@ -14402,51 +14286,29 @@
         <v>47.122104</v>
       </c>
       <c r="B50" s="24">
-        <v>39.914000000000001</v>
+        <v>24.962</v>
       </c>
       <c r="C50">
-        <v>27.792999999999999</v>
+        <v>25.215</v>
       </c>
       <c r="D50" s="24">
-        <f t="shared" si="9"/>
-        <v>35.860486296801398</v>
+        <f t="shared" si="6"/>
+        <v>24.572888604876688</v>
       </c>
       <c r="E50">
+        <f t="shared" si="1"/>
+        <v>24.916751281842302</v>
+      </c>
+      <c r="F50" s="24">
         <f t="shared" si="2"/>
-        <v>30.668323459738051</v>
-      </c>
-      <c r="F50" s="24">
-        <f t="shared" si="8"/>
-        <v>16.430973342018859</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="3"/>
-        <v>8.2674849981200005</v>
+        <v>0.15140767781480993</v>
+      </c>
+      <c r="G50" s="28">
+        <f t="shared" si="2"/>
+        <v>8.8952297882709877E-2</v>
       </c>
       <c r="I50">
         <v>1.8085599999999999</v>
-      </c>
-      <c r="J50" s="24">
-        <v>24.962</v>
-      </c>
-      <c r="K50">
-        <v>22.637</v>
-      </c>
-      <c r="L50" s="24">
-        <f t="shared" si="4"/>
-        <v>28.172997483742652</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="5"/>
-        <v>27.107603462509037</v>
-      </c>
-      <c r="N50" s="24">
-        <f t="shared" si="6"/>
-        <v>10.310504840601643</v>
-      </c>
-      <c r="O50" s="24">
-        <f t="shared" si="7"/>
-        <v>19.986295318997783</v>
       </c>
       <c r="W50" s="14">
         <v>136350304</v>
@@ -14484,51 +14346,29 @@
         <v>48.124712000000002</v>
       </c>
       <c r="B51" s="24">
-        <v>38.845999999999997</v>
+        <v>24.962</v>
       </c>
       <c r="C51">
-        <v>27.792999999999999</v>
+        <v>24.57</v>
       </c>
       <c r="D51" s="24">
-        <f t="shared" si="9"/>
-        <v>35.665720948768595</v>
+        <f t="shared" si="6"/>
+        <v>24.475855113522474</v>
       </c>
       <c r="E51">
+        <f t="shared" si="1"/>
+        <v>24.802081338013775</v>
+      </c>
+      <c r="F51" s="24">
         <f t="shared" si="2"/>
-        <v>30.371796844759775</v>
-      </c>
-      <c r="F51" s="24">
-        <f t="shared" si="8"/>
-        <v>10.114174843701306</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="3"/>
-        <v>6.6501931665429739</v>
+        <v>0.23633685064824617</v>
+      </c>
+      <c r="G51" s="28">
+        <f t="shared" si="2"/>
+        <v>5.3861747454263753E-2</v>
       </c>
       <c r="I51">
         <v>1.84704</v>
-      </c>
-      <c r="J51" s="24">
-        <v>24.962</v>
-      </c>
-      <c r="K51">
-        <v>21.347999999999999</v>
-      </c>
-      <c r="L51" s="24">
-        <f t="shared" si="4"/>
-        <v>28.024281089361597</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="5"/>
-        <v>26.931166840237655</v>
-      </c>
-      <c r="N51" s="24">
-        <f t="shared" si="6"/>
-        <v>9.3775654702616542</v>
-      </c>
-      <c r="O51" s="24">
-        <f t="shared" si="7"/>
-        <v>31.171751965929328</v>
       </c>
       <c r="W51" s="14">
         <v>137352912</v>
@@ -14566,51 +14406,29 @@
         <v>49.127327999999999</v>
       </c>
       <c r="B52" s="24">
-        <v>36.71</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="C52">
-        <v>27.148</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="D52" s="24">
-        <f t="shared" si="9"/>
-        <v>35.472011868190009</v>
+        <f t="shared" si="6"/>
+        <v>24.384210779309399</v>
       </c>
       <c r="E52">
+        <f t="shared" si="1"/>
+        <v>24.693178367893907</v>
+      </c>
+      <c r="F52" s="24">
         <f t="shared" si="2"/>
-        <v>30.078134961565215</v>
-      </c>
-      <c r="F52" s="24">
-        <f t="shared" si="8"/>
-        <v>1.5326146145023938</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="3"/>
-        <v>8.5856908929867881</v>
+        <v>0.24030660815112964</v>
+      </c>
+      <c r="G52" s="28">
+        <f t="shared" si="2"/>
+        <v>1.3591400778865186</v>
       </c>
       <c r="I52">
         <v>1.8855200000000001</v>
-      </c>
-      <c r="J52" s="24">
-        <v>23.893999999999998</v>
-      </c>
-      <c r="K52">
-        <v>21.347999999999999</v>
-      </c>
-      <c r="L52" s="24">
-        <f t="shared" si="4"/>
-        <v>27.878520665763176</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="5"/>
-        <v>26.759146678878579</v>
-      </c>
-      <c r="N52" s="24">
-        <f t="shared" si="6"/>
-        <v>15.876404935893838</v>
-      </c>
-      <c r="O52" s="24">
-        <f t="shared" si="7"/>
-        <v>29.280508380338691</v>
       </c>
       <c r="W52" s="14">
         <v>138355528</v>
@@ -14648,51 +14466,29 @@
         <v>50.129952000000003</v>
       </c>
       <c r="B53" s="24">
-        <v>36.71</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="C53">
-        <v>26.504000000000001</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="D53" s="24">
-        <f t="shared" si="9"/>
-        <v>35.279353335013276</v>
+        <f t="shared" si="6"/>
+        <v>24.297656332532291</v>
       </c>
       <c r="E53">
+        <f t="shared" si="1"/>
+        <v>24.589752381795073</v>
+      </c>
+      <c r="F53" s="24">
         <f t="shared" si="2"/>
-        <v>29.787310156659672</v>
-      </c>
-      <c r="F53" s="24">
-        <f t="shared" si="8"/>
-        <v>2.0467498800376376</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="3"/>
-        <v>10.780125584824548</v>
+        <v>2.1657723610823929</v>
+      </c>
+      <c r="G53" s="28">
+        <f t="shared" si="2"/>
+        <v>1.6109895163188852</v>
       </c>
       <c r="I53">
         <v>1.9239999999999999</v>
-      </c>
-      <c r="J53" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="K53">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="L53" s="24">
-        <f t="shared" si="4"/>
-        <v>27.735657458407896</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="5"/>
-        <v>26.591432428100831</v>
-      </c>
-      <c r="N53" s="24">
-        <f t="shared" si="6"/>
-        <v>24.104736358900279</v>
-      </c>
-      <c r="O53" s="24">
-        <f t="shared" si="7"/>
-        <v>42.672673427703302</v>
       </c>
       <c r="W53" s="14">
         <v>139358152</v>
@@ -14730,51 +14526,29 @@
         <v>51.132567999999999</v>
       </c>
       <c r="B54" s="24">
-        <v>36.71</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="C54">
-        <v>27.148</v>
+        <v>25.215</v>
       </c>
       <c r="D54" s="24">
-        <f t="shared" si="9"/>
-        <v>35.087742709568495</v>
+        <f t="shared" si="6"/>
+        <v>24.215910387885412</v>
       </c>
       <c r="E54">
+        <f t="shared" si="1"/>
+        <v>24.491529497253833</v>
+      </c>
+      <c r="F54" s="24">
         <f t="shared" si="2"/>
-        <v>29.499299617124727</v>
-      </c>
-      <c r="F54" s="24">
-        <f t="shared" si="8"/>
-        <v>2.6317187163581708</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="3"/>
-        <v>5.5286098894908893</v>
+        <v>1.9318508863517745</v>
+      </c>
+      <c r="G54" s="28">
+        <f t="shared" si="2"/>
+        <v>0.52340956834379193</v>
       </c>
       <c r="I54">
         <v>1.96248</v>
-      </c>
-      <c r="J54" s="24">
-        <v>23.893999999999998</v>
-      </c>
-      <c r="K54">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L54" s="24">
-        <f t="shared" si="4"/>
-        <v>27.595633880594555</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="5"/>
-        <v>26.427916304806264</v>
-      </c>
-      <c r="N54" s="24">
-        <f t="shared" si="6"/>
-        <v>13.702093385965515</v>
-      </c>
-      <c r="O54" s="24">
-        <f t="shared" si="7"/>
-        <v>32.774666697036608</v>
       </c>
       <c r="W54" s="14">
         <v>140360768</v>
@@ -14812,51 +14586,29 @@
         <v>52.135168</v>
       </c>
       <c r="B55" s="24">
-        <v>35.642000000000003</v>
+        <v>22.826000000000001</v>
       </c>
       <c r="C55">
-        <v>26.504000000000001</v>
+        <v>25.215</v>
       </c>
       <c r="D55" s="24">
-        <f t="shared" si="9"/>
-        <v>34.897175800255006</v>
+        <f t="shared" si="6"/>
+        <v>24.138706374103393</v>
       </c>
       <c r="E55">
+        <f t="shared" si="1"/>
+        <v>24.39824864616449</v>
+      </c>
+      <c r="F55" s="24">
         <f t="shared" si="2"/>
-        <v>29.214078352483213</v>
-      </c>
-      <c r="F55" s="24">
-        <f t="shared" si="8"/>
-        <v>0.55476308852577505</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="3"/>
-        <v>7.3445246765981187</v>
+        <v>1.7231980246116751</v>
+      </c>
+      <c r="G55" s="28">
+        <f t="shared" si="2"/>
+        <v>0.66708277399213878</v>
       </c>
       <c r="I55">
         <v>2.0009600000000001</v>
-      </c>
-      <c r="J55" s="24">
-        <v>23.893999999999998</v>
-      </c>
-      <c r="K55">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L55" s="24">
-        <f t="shared" si="4"/>
-        <v>27.458393490247666</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="5"/>
-        <v>26.268493223861778</v>
-      </c>
-      <c r="N55" s="24">
-        <f t="shared" si="6"/>
-        <v>12.704900953319948</v>
-      </c>
-      <c r="O55" s="24">
-        <f t="shared" si="7"/>
-        <v>30.974714824851379</v>
       </c>
       <c r="W55" s="14">
         <v>141363368</v>
@@ -14893,52 +14645,19 @@
       <c r="A56">
         <v>53.137776000000002</v>
       </c>
-      <c r="B56" s="24">
-        <v>37.777999999999999</v>
-      </c>
       <c r="C56">
-        <v>26.504000000000001</v>
-      </c>
-      <c r="D56" s="24">
-        <f t="shared" si="9"/>
-        <v>34.707642380829377</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E56">
+        <f t="shared" si="1"/>
+        <v>24.309659033371048</v>
+      </c>
+      <c r="G56" s="28">
         <f t="shared" si="2"/>
-        <v>28.93161257717129</v>
-      </c>
-      <c r="F56" s="24">
-        <f t="shared" si="8"/>
-        <v>9.4270959095990889</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="3"/>
-        <v>5.8933028248402248</v>
+        <v>0.14719425388720822</v>
       </c>
       <c r="I56">
         <v>2.0394399999999999</v>
-      </c>
-      <c r="J56" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="K56">
-        <v>21.347999999999999</v>
-      </c>
-      <c r="L56" s="24">
-        <f t="shared" si="4"/>
-        <v>27.323880967166193</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="5"/>
-        <v>26.113060730565408</v>
-      </c>
-      <c r="N56" s="24">
-        <f t="shared" si="6"/>
-        <v>20.230933194795885</v>
-      </c>
-      <c r="O56" s="24">
-        <f t="shared" si="7"/>
-        <v>22.705803765976551</v>
       </c>
       <c r="W56" s="14">
         <v>142365976</v>
@@ -14975,52 +14694,19 @@
       <c r="A57">
         <v>54.140391999999999</v>
       </c>
-      <c r="B57" s="24">
-        <v>33.506</v>
-      </c>
       <c r="C57">
-        <v>26.504000000000001</v>
-      </c>
-      <c r="D57" s="24">
-        <f t="shared" si="9"/>
-        <v>34.519136854632436</v>
+        <v>25.215</v>
       </c>
       <c r="E57">
+        <f t="shared" si="1"/>
+        <v>24.225524763894114</v>
+      </c>
+      <c r="G57" s="28">
         <f t="shared" si="2"/>
-        <v>28.651875692432661</v>
-      </c>
-      <c r="F57" s="24">
-        <f t="shared" si="8"/>
-        <v>1.0264462862145043</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="3"/>
-        <v>4.6133699901430774</v>
+        <v>0.97906124286679808</v>
       </c>
       <c r="I57">
         <v>2.0779200000000002</v>
-      </c>
-      <c r="J57" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="K57">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L57" s="24">
-        <f t="shared" si="4"/>
-        <v>27.192042090724566</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="5"/>
-        <v>25.961518934802854</v>
-      </c>
-      <c r="N57" s="24">
-        <f t="shared" si="6"/>
-        <v>19.062323537978539</v>
-      </c>
-      <c r="O57" s="24">
-        <f t="shared" si="7"/>
-        <v>27.652021387680144</v>
       </c>
       <c r="W57" s="14">
         <v>143368592</v>
@@ -15057,52 +14743,19 @@
       <c r="A58">
         <v>55.143000000000001</v>
       </c>
-      <c r="B58" s="24">
-        <v>33.506</v>
-      </c>
       <c r="C58">
-        <v>25.859000000000002</v>
-      </c>
-      <c r="D58" s="24">
-        <f t="shared" si="9"/>
-        <v>34.331656639009033</v>
+        <v>25.215</v>
       </c>
       <c r="E58">
+        <f t="shared" si="1"/>
+        <v>24.145623045273844</v>
+      </c>
+      <c r="G58" s="28">
         <f t="shared" si="2"/>
-        <v>28.374845755566074</v>
-      </c>
-      <c r="F58" s="24">
-        <f t="shared" si="8"/>
-        <v>0.68170888553969222</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="3"/>
-        <v>6.3294798657998221</v>
+        <v>1.1435670712993871</v>
       </c>
       <c r="I58">
         <v>2.1164079999999998</v>
-      </c>
-      <c r="J58" s="24">
-        <v>23.893999999999998</v>
-      </c>
-      <c r="K58">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L58" s="24">
-        <f t="shared" si="4"/>
-        <v>27.062797122319811</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="5"/>
-        <v>25.813740117683725</v>
-      </c>
-      <c r="N58" s="24">
-        <f t="shared" si="6"/>
-        <v>10.041275202422325</v>
-      </c>
-      <c r="O58" s="24">
-        <f t="shared" si="7"/>
-        <v>26.119664550501863</v>
       </c>
       <c r="W58" s="14">
         <v>144371200</v>
@@ -15139,52 +14792,19 @@
       <c r="A59">
         <v>56.145608000000003</v>
       </c>
-      <c r="B59" s="24">
-        <v>32.438000000000002</v>
-      </c>
       <c r="C59">
-        <v>26.504000000000001</v>
-      </c>
-      <c r="D59" s="24">
-        <f t="shared" si="9"/>
-        <v>34.145194665278481</v>
+        <v>24.57</v>
       </c>
       <c r="E59">
+        <f t="shared" si="1"/>
+        <v>24.069740328927622</v>
+      </c>
+      <c r="G59" s="28">
         <f t="shared" si="2"/>
-        <v>28.100494372339181</v>
-      </c>
-      <c r="F59" s="24">
-        <f t="shared" si="8"/>
-        <v>2.9145136251552977</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="3"/>
-        <v>2.5487942809106716</v>
+        <v>0.25025973850144373</v>
       </c>
       <c r="I59">
         <v>2.1548799999999999</v>
-      </c>
-      <c r="J59" s="24">
-        <v>21.759</v>
-      </c>
-      <c r="K59">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L59" s="24">
-        <f t="shared" si="4"/>
-        <v>26.936173762435637</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="5"/>
-        <v>25.669720314795487</v>
-      </c>
-      <c r="N59" s="24">
-        <f t="shared" si="6"/>
-        <v>26.803128166451962</v>
-      </c>
-      <c r="O59" s="24">
-        <f t="shared" si="7"/>
-        <v>24.66831068540219</v>
       </c>
       <c r="W59" s="14">
         <v>145373808</v>
@@ -15221,53 +14841,21 @@
       <c r="A60">
         <v>57.148223999999999</v>
       </c>
-      <c r="B60" s="24">
-        <v>32.438000000000002</v>
-      </c>
       <c r="C60">
-        <v>26.504000000000001</v>
-      </c>
-      <c r="D60" s="24">
-        <f t="shared" si="9"/>
-        <v>33.959743927459691</v>
+        <v>24.57</v>
       </c>
       <c r="E60">
+        <f t="shared" si="1"/>
+        <v>23.997673901449257</v>
+      </c>
+      <c r="G60" s="28">
         <f t="shared" si="2"/>
-        <v>27.828793486867763</v>
-      </c>
-      <c r="F60" s="24">
-        <f t="shared" si="8"/>
-        <v>2.3157045807604377</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="3"/>
-        <v>1.7550777828472426</v>
+        <v>0.32755716308231481</v>
       </c>
       <c r="I60">
         <v>2.1933600000000002</v>
       </c>
-      <c r="J60" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="K60" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L60" s="24">
-        <f t="shared" si="4"/>
-        <v>26.812041172675926</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="5"/>
-        <v>25.529275963497057</v>
-      </c>
-      <c r="N60" s="24">
-        <f t="shared" si="6"/>
-        <v>15.888524230267665</v>
-      </c>
-      <c r="O60" s="24">
-        <f t="shared" si="7"/>
-        <v>23.292939675829448</v>
-      </c>
+      <c r="K60" s="15"/>
       <c r="W60" s="14">
         <v>146376424</v>
       </c>
@@ -15303,53 +14891,21 @@
       <c r="A61">
         <v>58.150840000000002</v>
       </c>
-      <c r="B61" s="24">
-        <v>32.438000000000002</v>
-      </c>
       <c r="C61">
-        <v>25.859000000000002</v>
-      </c>
-      <c r="D61" s="24">
-        <f t="shared" si="9"/>
-        <v>33.775300417055909</v>
+        <v>24.57</v>
       </c>
       <c r="E61">
+        <f t="shared" si="1"/>
+        <v>23.929232394596518</v>
+      </c>
+      <c r="G61" s="28">
         <f t="shared" si="2"/>
-        <v>27.559719650237113</v>
-      </c>
-      <c r="F61" s="24">
-        <f t="shared" si="8"/>
-        <v>1.7883724054579031</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="3"/>
-        <v>2.8924473287026431</v>
+        <v>0.41058312413451281</v>
       </c>
       <c r="I61">
         <v>2.23184</v>
       </c>
-      <c r="J61" s="24">
-        <v>21.759</v>
-      </c>
-      <c r="K61" s="15">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="L61" s="24">
-        <f t="shared" si="4"/>
-        <v>26.690375912157425</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="5"/>
-        <v>25.39234713510923</v>
-      </c>
-      <c r="N61" s="24">
-        <f t="shared" si="6"/>
-        <v>24.318468387006469</v>
-      </c>
-      <c r="O61" s="24">
-        <f t="shared" si="7"/>
-        <v>28.444591663577814</v>
-      </c>
+      <c r="K61" s="15"/>
       <c r="W61" s="14">
         <v>147379040</v>
       </c>
@@ -15385,53 +14941,21 @@
       <c r="A62">
         <v>59.153464</v>
       </c>
-      <c r="B62" s="24">
-        <v>31.37</v>
-      </c>
       <c r="C62">
-        <v>25.215</v>
-      </c>
-      <c r="D62" s="24">
-        <f t="shared" si="9"/>
-        <v>33.591857203850715</v>
+        <v>24.57</v>
       </c>
       <c r="E62">
+        <f t="shared" si="1"/>
+        <v>23.864232970535415</v>
+      </c>
+      <c r="G62" s="28">
         <f t="shared" si="2"/>
-        <v>27.293245345870389</v>
-      </c>
-      <c r="F62" s="24">
-        <f t="shared" si="8"/>
-        <v>4.9366494343033134</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="3"/>
-        <v>4.3191037176319336</v>
+        <v>0.49810709987926477</v>
       </c>
       <c r="I62">
         <v>2.2703199999999999</v>
       </c>
-      <c r="J62" s="24">
-        <v>20.690999999999999</v>
-      </c>
-      <c r="K62" s="15">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="L62" s="24">
-        <f t="shared" si="4"/>
-        <v>26.571128938855008</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="5"/>
-        <v>25.258845831067301</v>
-      </c>
-      <c r="N62" s="24">
-        <f t="shared" si="6"/>
-        <v>34.57591633756013</v>
-      </c>
-      <c r="O62" s="24">
-        <f t="shared" si="7"/>
-        <v>27.038396666867982</v>
-      </c>
+      <c r="K62" s="15"/>
       <c r="W62" s="14">
         <v>148381664</v>
       </c>
@@ -15467,53 +14991,21 @@
       <c r="A63">
         <v>60.156080000000003</v>
       </c>
-      <c r="B63" s="24">
-        <v>31.37</v>
-      </c>
       <c r="C63">
-        <v>24.57</v>
-      </c>
-      <c r="D63" s="24">
-        <f t="shared" si="9"/>
-        <v>33.409411774435952</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E63">
+        <f t="shared" si="1"/>
+        <v>23.80250350422218</v>
+      </c>
+      <c r="G63" s="28">
         <f t="shared" si="2"/>
-        <v>27.029349670954385</v>
-      </c>
-      <c r="F63" s="24">
-        <f t="shared" si="8"/>
-        <v>4.1592003857079956</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="3"/>
-        <v>6.0484008040234416</v>
+        <v>1.5251384469400664E-2</v>
       </c>
       <c r="I63">
         <v>2.3088000000000002</v>
       </c>
-      <c r="J63" s="24">
-        <v>21.759</v>
-      </c>
-      <c r="K63" s="15">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="L63" s="24">
-        <f t="shared" si="4"/>
-        <v>26.454252185530464</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="5"/>
-        <v>25.128686255536451</v>
-      </c>
-      <c r="N63" s="24">
-        <f t="shared" si="6"/>
-        <v>22.045393085728598</v>
-      </c>
-      <c r="O63" s="24">
-        <f t="shared" si="7"/>
-        <v>25.701718729575187</v>
-      </c>
+      <c r="K63" s="15"/>
       <c r="W63" s="14">
         <v>149384280</v>
       </c>
@@ -15549,53 +15041,21 @@
       <c r="A64">
         <v>61.158687999999998</v>
       </c>
-      <c r="B64" s="24">
-        <v>28.166</v>
-      </c>
       <c r="C64">
-        <v>25.859000000000002</v>
-      </c>
-      <c r="D64" s="24">
-        <f t="shared" si="9"/>
-        <v>33.227958693795507</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E64">
+        <f t="shared" si="1"/>
+        <v>23.743879468159307</v>
+      </c>
+      <c r="G64" s="28">
         <f t="shared" si="2"/>
-        <v>26.768007652258309</v>
-      </c>
-      <c r="F64" s="24">
-        <f t="shared" si="8"/>
-        <v>25.623425817691917</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="3"/>
-        <v>0.82629491186415882</v>
+        <v>3.3167888117936424E-2</v>
       </c>
       <c r="I64">
         <v>2.34728</v>
       </c>
-      <c r="J64" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="K64" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L64" s="24">
-        <f t="shared" si="4"/>
-        <v>26.339698540357077</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="5"/>
-        <v>25.001784760274283</v>
-      </c>
-      <c r="N64" s="24">
-        <f t="shared" si="6"/>
-        <v>12.346077432507448</v>
-      </c>
-      <c r="O64" s="24">
-        <f t="shared" si="7"/>
-        <v>18.479550415166432</v>
-      </c>
+      <c r="K64" s="15"/>
       <c r="W64" s="14">
         <v>150386888</v>
       </c>
@@ -15631,53 +15091,21 @@
       <c r="A65">
         <v>62.161312000000002</v>
       </c>
-      <c r="B65" s="24">
-        <v>29.234000000000002</v>
-      </c>
       <c r="C65">
-        <v>25.859000000000002</v>
-      </c>
-      <c r="D65" s="24">
-        <f t="shared" si="9"/>
-        <v>33.04748824835837</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E65">
+        <f t="shared" si="1"/>
+        <v>23.688203315606359</v>
+      </c>
+      <c r="G65" s="28">
         <f t="shared" si="2"/>
-        <v>26.509188393247538</v>
-      </c>
-      <c r="F65" s="24">
-        <f t="shared" si="8"/>
-        <v>14.542692620367374</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="3"/>
-        <v>0.42274494671381235</v>
+        <v>5.6547263108608373E-2</v>
       </c>
       <c r="I65">
         <v>2.3857599999999999</v>
       </c>
-      <c r="J65" s="24">
-        <v>21.759</v>
-      </c>
-      <c r="K65" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L65" s="24">
-        <f t="shared" si="4"/>
-        <v>26.227421827929312</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="5"/>
-        <v>24.878059790873486</v>
-      </c>
-      <c r="N65" s="24">
-        <f t="shared" si="6"/>
-        <v>19.966793632315134</v>
-      </c>
-      <c r="O65" s="24">
-        <f t="shared" si="7"/>
-        <v>17.431124257368563</v>
-      </c>
+      <c r="K65" s="15"/>
       <c r="W65" s="14">
         <v>151389512</v>
       </c>
@@ -15713,53 +15141,21 @@
       <c r="A66">
         <v>63.163927999999999</v>
       </c>
-      <c r="B66" s="24">
-        <v>29.234000000000002</v>
-      </c>
       <c r="C66">
-        <v>25.215</v>
-      </c>
-      <c r="D66" s="24">
-        <f t="shared" si="9"/>
-        <v>32.867999417241883</v>
+        <v>24.57</v>
       </c>
       <c r="E66">
+        <f t="shared" si="1"/>
+        <v>23.635328090431489</v>
+      </c>
+      <c r="G66" s="28">
         <f t="shared" si="2"/>
-        <v>26.252873687031418</v>
-      </c>
-      <c r="F66" s="24">
-        <f t="shared" si="8"/>
-        <v>13.205951764514333</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="3"/>
-        <v>1.0771817902321894</v>
+        <v>0.87361157853644678</v>
       </c>
       <c r="I66">
         <v>2.4242400000000002</v>
       </c>
-      <c r="J66" s="24">
-        <v>20.690999999999999</v>
-      </c>
-      <c r="K66" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L66" s="24">
-        <f t="shared" si="4"/>
-        <v>26.117376790649995</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="5"/>
-        <v>24.757431834350182</v>
-      </c>
-      <c r="N66" s="24">
-        <f t="shared" si="6"/>
-        <v>29.445565074104955</v>
-      </c>
-      <c r="O66" s="24">
-        <f t="shared" si="7"/>
-        <v>16.438417499392187</v>
-      </c>
+      <c r="K66" s="15"/>
       <c r="W66" s="14">
         <v>152392128</v>
       </c>
@@ -15795,53 +15191,21 @@
       <c r="A67">
         <v>64.166535999999994</v>
       </c>
-      <c r="B67" s="24">
-        <v>31.37</v>
-      </c>
       <c r="C67">
-        <v>25.215</v>
-      </c>
-      <c r="D67" s="24">
-        <f t="shared" si="9"/>
-        <v>32.689486853506466</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E67">
+        <f t="shared" si="1"/>
+        <v>23.58511286433906</v>
+      </c>
+      <c r="G67" s="28">
         <f t="shared" si="2"/>
-        <v>25.999039277788683</v>
-      </c>
-      <c r="F67" s="24">
-        <f t="shared" ref="F67:F95" si="10">(D67-B67)^2</f>
-        <v>1.7410455565763914</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="3"/>
-        <v>0.61471758911539909</v>
+        <v>0.11620403925911933</v>
       </c>
       <c r="I67">
         <v>2.46272</v>
       </c>
-      <c r="J67" s="24">
-        <v>21.759</v>
-      </c>
-      <c r="K67" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L67" s="24">
-        <f t="shared" si="4"/>
-        <v>26.009519070487432</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="5"/>
-        <v>24.639823368044151</v>
-      </c>
-      <c r="N67" s="24">
-        <f t="shared" si="6"/>
-        <v>18.066912368577338</v>
-      </c>
-      <c r="O67" s="24">
-        <f t="shared" si="7"/>
-        <v>15.498578231178501</v>
-      </c>
+      <c r="K67" s="15"/>
       <c r="W67" s="14">
         <v>153394736</v>
       </c>
@@ -15877,53 +15241,21 @@
       <c r="A68">
         <v>65.169144000000003</v>
       </c>
-      <c r="B68" s="24">
-        <v>30.302</v>
-      </c>
       <c r="C68">
         <v>23.925999999999998</v>
       </c>
-      <c r="D68" s="24">
-        <f t="shared" ref="D68:D95" si="11">$R$4+($R$3-$R$4)*EXP(-A68/$R$5)</f>
-        <v>32.511943826584236</v>
-      </c>
       <c r="E68">
-        <f t="shared" ref="E68:E106" si="12">S$4+(S$3-S$4)*EXP(-A68/S$5)</f>
-        <v>25.747659148716711</v>
-      </c>
-      <c r="F68" s="24">
-        <f t="shared" si="10"/>
-        <v>4.8838517166577784</v>
-      </c>
-      <c r="G68">
-        <f t="shared" ref="G68:G106" si="13">(C68-E68)^2</f>
-        <v>3.3184420541032966</v>
+        <f t="shared" ref="E68:E84" si="7">S$4+(S$3-S$4)*EXP(-A68/S$5)</f>
+        <v>23.537423430073666</v>
+      </c>
+      <c r="G68" s="28">
+        <f t="shared" ref="G68:G84" si="8">(E68-C68)^2</f>
+        <v>0.15099175069571388</v>
       </c>
       <c r="I68">
         <v>2.5011999999999999</v>
       </c>
-      <c r="J68" s="24">
-        <v>21.759</v>
-      </c>
-      <c r="K68" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L68" s="24">
-        <f t="shared" ref="L68:L73" si="14">T$4+(T$3-T$4)*EXP(-I68/T$5)</f>
-        <v>25.903805191095145</v>
-      </c>
-      <c r="M68">
-        <f t="shared" ref="M68:M73" si="15">U$4+(U$3-U$4)*EXP(-I68/U$5)</f>
-        <v>24.525158809798192</v>
-      </c>
-      <c r="N68" s="24">
-        <f t="shared" ref="N68:N73" si="16">(J68-L68)^2</f>
-        <v>17.179410072129262</v>
-      </c>
-      <c r="O68" s="24">
-        <f t="shared" ref="O68:O73" si="17">(K68-M68)^2</f>
-        <v>14.608897967317938</v>
-      </c>
+      <c r="K68" s="15"/>
       <c r="W68" s="14">
         <v>154397344</v>
       </c>
@@ -15959,53 +15291,21 @@
       <c r="A69">
         <v>66.171751999999998</v>
       </c>
-      <c r="B69" s="24">
-        <v>29.234000000000002</v>
-      </c>
       <c r="C69">
-        <v>25.215</v>
-      </c>
-      <c r="D69" s="24">
-        <f t="shared" si="11"/>
-        <v>32.335365070730276</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E69">
-        <f t="shared" si="12"/>
-        <v>25.498709569813045</v>
-      </c>
-      <c r="F69" s="24">
-        <f t="shared" si="10"/>
-        <v>9.6184653019458004</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="13"/>
-        <v>8.0491120003502906E-2</v>
+        <f t="shared" si="7"/>
+        <v>23.492132742018871</v>
+      </c>
+      <c r="G69" s="28">
+        <f t="shared" si="8"/>
+        <v>0.18824079754806211</v>
       </c>
       <c r="I69">
         <v>2.5396800000000002</v>
       </c>
-      <c r="J69" s="24">
-        <v>19.623000000000001</v>
-      </c>
-      <c r="K69" s="15">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="L69" s="24">
-        <f t="shared" si="14"/>
-        <v>25.800192540286989</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="15"/>
-        <v>24.413364469384568</v>
-      </c>
-      <c r="N69" s="24">
-        <f t="shared" si="16"/>
-        <v>38.157707679777218</v>
-      </c>
-      <c r="O69" s="24">
-        <f t="shared" si="17"/>
-        <v>18.960489932238744</v>
-      </c>
+      <c r="K69" s="15"/>
       <c r="W69" s="14">
         <v>155399952</v>
       </c>
@@ -16041,53 +15341,21 @@
       <c r="A70">
         <v>67.174359999999993</v>
       </c>
-      <c r="B70" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="C70">
-        <v>25.215</v>
-      </c>
-      <c r="D70" s="24">
-        <f t="shared" si="11"/>
-        <v>32.159745348798886</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E70">
-        <f t="shared" si="12"/>
-        <v>25.252167040516422</v>
-      </c>
-      <c r="F70" s="24">
-        <f t="shared" si="10"/>
-        <v>25.621265976087166</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="13"/>
-        <v>1.3813889007493834E-3</v>
+        <f t="shared" si="7"/>
+        <v>23.449120144866608</v>
+      </c>
+      <c r="G70" s="28">
+        <f t="shared" si="8"/>
+        <v>0.22741439623204318</v>
       </c>
       <c r="I70">
         <v>2.57816</v>
       </c>
-      <c r="J70" s="24">
-        <v>21.759</v>
-      </c>
-      <c r="K70" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L70" s="24">
-        <f t="shared" si="14"/>
-        <v>25.698639352860631</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="15"/>
-        <v>24.304368501147302</v>
-      </c>
-      <c r="N70" s="24">
-        <f t="shared" si="16"/>
-        <v>15.520758230608132</v>
-      </c>
-      <c r="O70" s="24">
-        <f t="shared" si="17"/>
-        <v>12.969855081055966</v>
-      </c>
+      <c r="K70" s="15"/>
       <c r="W70" s="14">
         <v>156402560</v>
       </c>
@@ -16123,53 +15391,21 @@
       <c r="A71">
         <v>68.176975999999996</v>
       </c>
-      <c r="B71" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="C71">
-        <v>24.57</v>
-      </c>
-      <c r="D71" s="24">
-        <f t="shared" si="11"/>
-        <v>31.985078062187583</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="12"/>
-        <v>25.008006348748154</v>
-      </c>
-      <c r="F71" s="24">
-        <f t="shared" si="10"/>
-        <v>23.883531985915148</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="13"/>
-        <v>0.19184956154368915</v>
+        <f t="shared" si="7"/>
+        <v>23.408270734584736</v>
+      </c>
+      <c r="G71" s="28">
+        <f t="shared" si="8"/>
+        <v>1.6197839881738636E-2</v>
       </c>
       <c r="I71">
         <v>2.6166399999999999</v>
       </c>
-      <c r="J71" s="24">
-        <v>20.690999999999999</v>
-      </c>
-      <c r="K71" s="15">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="L71" s="24">
-        <f t="shared" si="14"/>
-        <v>25.599104693762403</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="15"/>
-        <v>24.198100857829896</v>
-      </c>
-      <c r="N71" s="24">
-        <f t="shared" si="16"/>
-        <v>24.08949168493254</v>
-      </c>
-      <c r="O71" s="24">
-        <f t="shared" si="17"/>
-        <v>17.132155911288173</v>
-      </c>
+      <c r="K71" s="15"/>
       <c r="W71" s="14">
         <v>157405176</v>
       </c>
@@ -16205,53 +15441,21 @@
       <c r="A72">
         <v>69.179599999999994</v>
       </c>
-      <c r="B72" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="C72">
         <v>24.57</v>
       </c>
-      <c r="D72" s="24">
-        <f t="shared" si="11"/>
-        <v>31.8113580531308</v>
-      </c>
       <c r="E72">
-        <f t="shared" si="12"/>
-        <v>24.766204502432061</v>
-      </c>
-      <c r="F72" s="24">
-        <f t="shared" si="10"/>
-        <v>22.215744137012972</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="13"/>
-        <v>3.8496206774612324E-2</v>
+        <f t="shared" si="7"/>
+        <v>23.369475736291225</v>
+      </c>
+      <c r="G72" s="28">
+        <f t="shared" si="8"/>
+        <v>1.4412585077534974</v>
       </c>
       <c r="I72">
         <v>2.6551200000000001</v>
       </c>
-      <c r="J72" s="24">
-        <v>19.623000000000001</v>
-      </c>
-      <c r="K72" s="15">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="L72" s="24">
-        <f t="shared" si="14"/>
-        <v>25.50154844158682</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="15"/>
-        <v>24.094493245558834</v>
-      </c>
-      <c r="N72" s="24">
-        <f t="shared" si="16"/>
-        <v>34.557331780082819</v>
-      </c>
-      <c r="O72" s="24">
-        <f t="shared" si="17"/>
-        <v>11.502226434671195</v>
-      </c>
+      <c r="K72" s="15"/>
       <c r="W72" s="14">
         <v>158407800</v>
       </c>
@@ -16287,53 +15491,21 @@
       <c r="A73">
         <v>70.182208000000003</v>
       </c>
-      <c r="B73" s="24">
-        <v>28.166</v>
-      </c>
       <c r="C73">
-        <v>24.57</v>
-      </c>
-      <c r="D73" s="24">
-        <f t="shared" si="11"/>
-        <v>31.638584316284771</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E73">
-        <f t="shared" si="12"/>
-        <v>24.526744435545552</v>
-      </c>
-      <c r="F73" s="24">
-        <f t="shared" si="10"/>
-        <v>12.058841833706966</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="13"/>
-        <v>1.8710438562728961E-3</v>
+        <f t="shared" si="7"/>
+        <v>23.332632703366862</v>
+      </c>
+      <c r="G73" s="28">
+        <f t="shared" si="8"/>
+        <v>2.6659360569704759E-3</v>
       </c>
       <c r="I73">
         <v>2.6936</v>
       </c>
-      <c r="J73" s="24">
-        <v>20.690999999999999</v>
-      </c>
-      <c r="K73" s="15">
-        <v>20.059000000000001</v>
-      </c>
-      <c r="L73" s="24">
-        <f t="shared" si="14"/>
-        <v>25.405931272404032</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="15"/>
-        <v>23.993479079953904</v>
-      </c>
-      <c r="N73" s="24">
-        <f t="shared" si="16"/>
-        <v>22.230576903493517</v>
-      </c>
-      <c r="O73" s="24">
-        <f t="shared" si="17"/>
-        <v>15.480125630594909</v>
-      </c>
+      <c r="K73" s="15"/>
       <c r="W73" s="14">
         <v>159410408</v>
       </c>
@@ -16369,27 +15541,16 @@
       <c r="A74">
         <v>71.184815999999998</v>
       </c>
-      <c r="B74" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="C74">
-        <v>24.57</v>
-      </c>
-      <c r="D74" s="24">
-        <f t="shared" si="11"/>
-        <v>31.466748947555377</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="E74">
-        <f t="shared" si="12"/>
-        <v>24.289599665846694</v>
-      </c>
-      <c r="F74" s="24">
-        <f t="shared" si="10"/>
-        <v>19.085967366766226</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="13"/>
-        <v>7.8624347393285735E-2</v>
+        <f t="shared" si="7"/>
+        <v>23.297642850019393</v>
+      </c>
+      <c r="G74" s="28">
+        <f t="shared" si="8"/>
+        <v>0.39483270793174863</v>
       </c>
       <c r="W74" s="14">
         <v>160413016</v>
@@ -16426,27 +15587,16 @@
       <c r="A75">
         <v>72.187415999999999</v>
       </c>
-      <c r="B75" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="C75">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D75" s="24">
-        <f t="shared" si="11"/>
-        <v>31.295848210431473</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E75">
-        <f t="shared" si="12"/>
-        <v>24.054749671974061</v>
-      </c>
-      <c r="F75" s="24">
-        <f t="shared" si="10"/>
-        <v>17.621929597822724</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="13"/>
-        <v>1.6576478033428838E-2</v>
+        <f t="shared" si="7"/>
+        <v>23.264413220937108</v>
+      </c>
+      <c r="G75" s="28">
+        <f t="shared" si="8"/>
+        <v>2.7512123968115445E-4</v>
       </c>
       <c r="W75" s="14">
         <v>161415616</v>
@@ -16483,27 +15633,16 @@
       <c r="A76">
         <v>73.190023999999994</v>
       </c>
-      <c r="B76" s="24">
-        <v>26.03</v>
-      </c>
       <c r="C76">
         <v>23.925999999999998</v>
       </c>
-      <c r="D76" s="24">
-        <f t="shared" si="11"/>
-        <v>31.125874308844143</v>
-      </c>
       <c r="E76">
-        <f t="shared" si="12"/>
-        <v>23.822168536466464</v>
-      </c>
-      <c r="F76" s="24">
-        <f t="shared" si="10"/>
-        <v>25.967934971537758</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="13"/>
-        <v>1.0780972819515742E-2</v>
+        <f t="shared" si="7"/>
+        <v>23.232854761303741</v>
+      </c>
+      <c r="G76" s="28">
+        <f t="shared" si="8"/>
+        <v>0.48045032192729092</v>
       </c>
       <c r="W76" s="14">
         <v>162418224</v>
@@ -16540,27 +15679,16 @@
       <c r="A77">
         <v>74.192639999999997</v>
       </c>
-      <c r="B77" s="24">
-        <v>26.03</v>
-      </c>
       <c r="C77">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D77" s="24">
-        <f t="shared" si="11"/>
-        <v>30.956822223699646</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E77">
-        <f t="shared" si="12"/>
-        <v>23.591834358019462</v>
-      </c>
-      <c r="F77" s="24">
-        <f t="shared" si="10"/>
-        <v>24.273577223940716</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="13"/>
-        <v>0.11166667628026428</v>
+        <f t="shared" si="7"/>
+        <v>23.202883437766506</v>
+      </c>
+      <c r="G77" s="28">
+        <f t="shared" si="8"/>
+        <v>6.1021972951792111E-3</v>
       </c>
       <c r="W77" s="14">
         <v>163420840</v>
@@ -16597,27 +15725,16 @@
       <c r="A78">
         <v>75.195248000000007</v>
       </c>
-      <c r="B78" s="24">
-        <v>26.03</v>
-      </c>
       <c r="C78">
-        <v>24.57</v>
-      </c>
-      <c r="D78" s="24">
-        <f t="shared" si="11"/>
-        <v>30.788689638868352</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E78">
-        <f t="shared" si="12"/>
-        <v>23.363729069104803</v>
-      </c>
-      <c r="F78" s="24">
-        <f t="shared" si="10"/>
-        <v>22.645127079072992</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="13"/>
-        <v>1.4550895587227659</v>
+        <f t="shared" si="7"/>
+        <v>23.174419884510055</v>
+      </c>
+      <c r="G78" s="28">
+        <f t="shared" si="8"/>
+        <v>1.135932101784979E-2</v>
       </c>
       <c r="W78" s="14">
         <v>164423448</v>
@@ -16654,27 +15771,16 @@
       <c r="A79">
         <v>76.197872000000004</v>
       </c>
-      <c r="B79" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="C79">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D79" s="24">
-        <f t="shared" si="11"/>
-        <v>30.621467553853844</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E79">
-        <f t="shared" si="12"/>
-        <v>23.137825702520708</v>
-      </c>
-      <c r="F79" s="24">
-        <f t="shared" si="10"/>
-        <v>12.414823603060796</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="13"/>
-        <v>0.62121872320697336</v>
+        <f t="shared" si="7"/>
+        <v>23.147387608335734</v>
+      </c>
+      <c r="G79" s="28">
+        <f t="shared" si="8"/>
+        <v>1.7852271206244913E-2</v>
       </c>
       <c r="W79" s="14">
         <v>165426072</v>
@@ -16711,27 +15817,16 @@
       <c r="A80">
         <v>77.200503999999995</v>
       </c>
-      <c r="B80" s="24">
-        <v>26.03</v>
-      </c>
       <c r="C80">
         <v>23.925999999999998</v>
       </c>
-      <c r="D80" s="24">
-        <f t="shared" si="11"/>
-        <v>30.455152375879734</v>
-      </c>
       <c r="E80">
-        <f t="shared" si="12"/>
-        <v>22.914104814054671</v>
-      </c>
-      <c r="F80" s="24">
-        <f t="shared" si="10"/>
-        <v>19.58197354975405</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="13"/>
-        <v>1.0239318673393289</v>
+        <f t="shared" si="7"/>
+        <v>23.121714858866532</v>
+      </c>
+      <c r="G80" s="28">
+        <f t="shared" si="8"/>
+        <v>0.6468745882480792</v>
       </c>
       <c r="W80" s="14">
         <v>166428704</v>
@@ -16768,27 +15863,16 @@
       <c r="A81">
         <v>78.203112000000004</v>
       </c>
-      <c r="B81" s="24">
-        <v>27.097999999999999</v>
-      </c>
       <c r="C81">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D81" s="24">
-        <f t="shared" si="11"/>
-        <v>30.289744458575239</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E81">
-        <f t="shared" si="12"/>
-        <v>22.692552372667087</v>
-      </c>
-      <c r="F81" s="24">
-        <f t="shared" si="10"/>
-        <v>10.187232688845752</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="13"/>
-        <v>1.5213930493731875</v>
+        <f t="shared" si="7"/>
+        <v>23.097334030097283</v>
+      </c>
+      <c r="G81" s="28">
+        <f t="shared" si="8"/>
+        <v>3.3733188500305336E-2</v>
       </c>
       <c r="W81" s="14">
         <v>167431312</v>
@@ -16825,27 +15909,16 @@
       <c r="A82">
         <v>79.205719999999999</v>
       </c>
-      <c r="B82" s="24">
-        <v>24.962</v>
-      </c>
       <c r="C82">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D82" s="24">
-        <f t="shared" si="11"/>
-        <v>30.125234904173986</v>
+        <v>23.280999999999999</v>
       </c>
       <c r="E82">
-        <f t="shared" si="12"/>
-        <v>22.473142082791998</v>
-      </c>
-      <c r="F82" s="24">
-        <f t="shared" si="10"/>
-        <v>26.658994675680557</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="13"/>
-        <v>2.110796127593968</v>
+        <f t="shared" si="7"/>
+        <v>23.074179540485172</v>
+      </c>
+      <c r="G82" s="28">
+        <f t="shared" si="8"/>
+        <v>4.2774702473924044E-2</v>
       </c>
       <c r="W82" s="14">
         <v>168433920</v>
@@ -16882,27 +15955,16 @@
       <c r="A83">
         <v>80.208327999999995</v>
       </c>
-      <c r="B83" s="24">
-        <v>24.962</v>
-      </c>
       <c r="C83">
         <v>23.280999999999999</v>
       </c>
-      <c r="D83" s="24">
-        <f t="shared" si="11"/>
-        <v>29.961618833490508</v>
-      </c>
       <c r="E83">
-        <f t="shared" si="12"/>
-        <v>22.255853232343927</v>
-      </c>
-      <c r="F83" s="24">
-        <f t="shared" si="10"/>
-        <v>24.996188480192995</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="13"/>
-        <v>1.0509258952356915</v>
+        <f t="shared" si="7"/>
+        <v>23.052189706002039</v>
+      </c>
+      <c r="G83" s="28">
+        <f t="shared" si="8"/>
+        <v>5.2354150639432655E-2</v>
       </c>
       <c r="W83" s="14">
         <v>169436528</v>
@@ -16939,27 +16001,16 @@
       <c r="A84">
         <v>81.210936000000004</v>
       </c>
-      <c r="B84" s="24">
-        <v>26.03</v>
-      </c>
       <c r="C84">
-        <v>24.57</v>
-      </c>
-      <c r="D84" s="24">
-        <f t="shared" si="11"/>
-        <v>29.79889139383916</v>
+        <v>22.637</v>
       </c>
       <c r="E84">
-        <f t="shared" si="12"/>
-        <v>22.040665309498905</v>
-      </c>
-      <c r="F84" s="24">
-        <f t="shared" si="10"/>
-        <v>14.204542338554877</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="13"/>
-        <v>6.3975339765722694</v>
+        <f t="shared" si="7"/>
+        <v>23.031305945284526</v>
+      </c>
+      <c r="G84" s="28">
+        <f t="shared" si="8"/>
+        <v>0.15547717848672318</v>
       </c>
       <c r="W84" s="14">
         <v>170439136</v>
@@ -16993,31 +16044,6 @@
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>82.213543999999999</v>
-      </c>
-      <c r="B85" s="24">
-        <v>26.03</v>
-      </c>
-      <c r="C85">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D85" s="24">
-        <f t="shared" si="11"/>
-        <v>29.637047758890166</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="12"/>
-        <v>21.827558000758184</v>
-      </c>
-      <c r="F85" s="24">
-        <f t="shared" si="10"/>
-        <v>13.010793534914558</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="13"/>
-        <v>2.1124936451600425</v>
-      </c>
       <c r="W85" s="14">
         <v>171441744</v>
       </c>
@@ -17050,31 +16076,6 @@
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>83.216151999999994</v>
-      </c>
-      <c r="B86" s="24">
-        <v>24.962</v>
-      </c>
-      <c r="C86">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D86" s="24">
-        <f t="shared" si="11"/>
-        <v>29.476083128526529</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="12"/>
-        <v>21.616511189030639</v>
-      </c>
-      <c r="F86" s="24">
-        <f t="shared" si="10"/>
-        <v>20.376946491247857</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="13"/>
-        <v>5.3337385679926648</v>
-      </c>
       <c r="W86" s="14">
         <v>172444352</v>
       </c>
@@ -17107,31 +16108,6 @@
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>84.218760000000003</v>
-      </c>
-      <c r="B87" s="24">
-        <v>26.03</v>
-      </c>
-      <c r="C87">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D87" s="24">
-        <f t="shared" si="11"/>
-        <v>29.315992728701602</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="12"/>
-        <v>21.407504951733763</v>
-      </c>
-      <c r="F87" s="24">
-        <f t="shared" si="10"/>
-        <v>10.797748213079791</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="13"/>
-        <v>3.5099836958781045</v>
-      </c>
       <c r="W87" s="14">
         <v>173446960</v>
       </c>
@@ -17164,31 +16140,6 @@
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>85.221376000000006</v>
-      </c>
-      <c r="B88" s="24">
-        <v>24.962</v>
-      </c>
-      <c r="C88">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D88" s="24">
-        <f t="shared" si="11"/>
-        <v>29.156770544299871</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="12"/>
-        <v>21.200517915347479</v>
-      </c>
-      <c r="F88" s="24">
-        <f t="shared" si="10"/>
-        <v>17.596099919325837</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="13"/>
-        <v>7.428252593761842</v>
-      </c>
       <c r="W88" s="14">
         <v>174449576</v>
       </c>
@@ -17221,31 +16172,6 @@
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>86.224000000000004</v>
-      </c>
-      <c r="B89" s="24">
-        <v>24.962</v>
-      </c>
-      <c r="C89">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D89" s="24">
-        <f t="shared" si="11"/>
-        <v>28.998411873635558</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="12"/>
-        <v>20.995530588357095</v>
-      </c>
-      <c r="F89" s="24">
-        <f t="shared" si="10"/>
-        <v>16.292620813626115</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="13"/>
-        <v>5.2233704315553604</v>
-      </c>
       <c r="W89" s="14">
         <v>175452200</v>
       </c>
@@ -17278,31 +16204,6 @@
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>87.226607999999999</v>
-      </c>
-      <c r="B90" s="24">
-        <v>24.962</v>
-      </c>
-      <c r="C90">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D90" s="24">
-        <f t="shared" si="11"/>
-        <v>28.840915800263264</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="12"/>
-        <v>20.792528503055248</v>
-      </c>
-      <c r="F90" s="24">
-        <f t="shared" si="10"/>
-        <v>15.045987785532002</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="13"/>
-        <v>6.1924903911064488</v>
-      </c>
       <c r="W90" s="14">
         <v>176454808</v>
       </c>
@@ -17335,31 +16236,6 @@
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>88.229224000000002</v>
-      </c>
-      <c r="B91" s="24">
-        <v>24.962</v>
-      </c>
-      <c r="C91">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D91" s="24">
-        <f t="shared" si="11"/>
-        <v>28.684273872549582</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="12"/>
-        <v>20.591487612791383</v>
-      </c>
-      <c r="F91" s="24">
-        <f t="shared" si="10"/>
-        <v>13.855322782265263</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="13"/>
-        <v>7.2334768809485883</v>
-      </c>
       <c r="W91" s="14">
         <v>177457424</v>
       </c>
@@ -17392,31 +16268,6 @@
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>89.231840000000005</v>
-      </c>
-      <c r="B92" s="24">
-        <v>23.893999999999998</v>
-      </c>
-      <c r="C92">
-        <v>23.925999999999998</v>
-      </c>
-      <c r="D92" s="24">
-        <f t="shared" si="11"/>
-        <v>28.528482704696909</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="12"/>
-        <v>20.39239056690181</v>
-      </c>
-      <c r="F92" s="24">
-        <f t="shared" si="10"/>
-        <v>21.478429940134795</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="13"/>
-        <v>12.486395625680503</v>
-      </c>
       <c r="W92" s="14">
         <v>178460040</v>
       </c>
@@ -17449,31 +16300,6 @@
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>90.234448</v>
-      </c>
-      <c r="B93" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="C93">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D93" s="24">
-        <f t="shared" si="11"/>
-        <v>28.373538908987044</v>
-      </c>
-      <c r="E93">
-        <f t="shared" si="12"/>
-        <v>20.195220136178506</v>
-      </c>
-      <c r="F93" s="24">
-        <f t="shared" si="10"/>
-        <v>30.775187946725154</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="13"/>
-        <v>9.5220373679661918</v>
-      </c>
       <c r="W93" s="14">
         <v>179462648</v>
       </c>
@@ -17506,31 +16332,6 @@
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>91.237055999999995</v>
-      </c>
-      <c r="B94" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="C94">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D94" s="24">
-        <f t="shared" si="11"/>
-        <v>28.219436643479728</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="12"/>
-        <v>19.999956111603318</v>
-      </c>
-      <c r="F94" s="24">
-        <f t="shared" si="10"/>
-        <v>29.08915882722987</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="13"/>
-        <v>10.765248997585212</v>
-      </c>
       <c r="W94" s="14">
         <v>180465256</v>
       </c>
@@ -17563,31 +16364,6 @@
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>92.239671999999999</v>
-      </c>
-      <c r="B95" s="24">
-        <v>22.826000000000001</v>
-      </c>
-      <c r="C95">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="D95" s="24">
-        <f t="shared" si="11"/>
-        <v>28.06617011805308</v>
-      </c>
-      <c r="E95">
-        <f t="shared" si="12"/>
-        <v>19.806578524970494</v>
-      </c>
-      <c r="F95" s="24">
-        <f t="shared" si="10"/>
-        <v>27.459382866136423</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="13"/>
-        <v>12.071604586146201</v>
-      </c>
       <c r="W95" s="14">
         <v>181467872</v>
       </c>
@@ -17620,20 +16396,6 @@
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>93.242288000000002</v>
-      </c>
-      <c r="C96">
-        <v>22.637</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="12"/>
-        <v>19.615070686991285</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="13"/>
-        <v>9.1320567728213291</v>
-      </c>
       <c r="W96" s="14">
         <v>182470488</v>
       </c>
@@ -17665,21 +16427,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>94.244904000000005</v>
-      </c>
-      <c r="C97">
-        <v>22.637</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="12"/>
-        <v>19.425414519251898</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="13"/>
-        <v>10.314281300152018</v>
-      </c>
+    <row r="97" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W97" s="14">
         <v>183473104</v>
       </c>
@@ -17711,21 +16459,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>95.247528000000003</v>
-      </c>
-      <c r="C98">
-        <v>22.637</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="12"/>
-        <v>19.237590626746936</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="13"/>
-        <v>11.555984086960791</v>
-      </c>
+    <row r="98" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W98" s="14">
         <v>184475728</v>
       </c>
@@ -17757,21 +16491,7 @@
         <v>20.059000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>96.250135999999998</v>
-      </c>
-      <c r="C99">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="12"/>
-        <v>19.051585753139289</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="13"/>
-        <v>17.887944871548346</v>
-      </c>
+    <row r="99" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W99" s="14">
         <v>185478336</v>
       </c>
@@ -17803,21 +16523,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>97.252752000000001</v>
-      </c>
-      <c r="C100">
-        <v>22.637</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="12"/>
-        <v>18.867377865186327</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="13"/>
-        <v>14.210051039277195</v>
-      </c>
+    <row r="100" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W100" s="14">
         <v>186480952</v>
       </c>
@@ -17849,21 +16555,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>98.255368000000004</v>
-      </c>
-      <c r="C101">
-        <v>22.637</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="12"/>
-        <v>18.684951064982375</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="13"/>
-        <v>15.618690784773948</v>
-      </c>
+    <row r="101" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W101" s="14">
         <v>187483568</v>
       </c>
@@ -17895,21 +16587,7 @@
         <v>20.059000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>99.257983999999993</v>
-      </c>
-      <c r="C102">
-        <v>22.637</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="12"/>
-        <v>18.504288131367119</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="13"/>
-        <v>17.079307389139085</v>
-      </c>
+    <row r="102" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W102" s="14">
         <v>188486184</v>
       </c>
@@ -17941,21 +16619,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>100.2606</v>
-      </c>
-      <c r="C103">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="12"/>
-        <v>18.325372009689925</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="13"/>
-        <v>24.558248778344659</v>
-      </c>
+    <row r="103" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W103" s="14">
         <v>189488800</v>
       </c>
@@ -17987,21 +16651,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>101.26320800000001</v>
-      </c>
-      <c r="C104">
-        <v>21.992000000000001</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="12"/>
-        <v>18.148187217134023</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="13"/>
-        <v>14.774896709723894</v>
-      </c>
+    <row r="104" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W104" s="14">
         <v>190491408</v>
       </c>
@@ -18033,21 +16683,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>102.26582399999999</v>
-      </c>
-      <c r="C105">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="12"/>
-        <v>17.972714199782054</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="13"/>
-        <v>28.177898136795466</v>
-      </c>
+    <row r="105" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W105" s="14">
         <v>191494024</v>
       </c>
@@ -18079,21 +16715,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>103.26844800000001</v>
-      </c>
-      <c r="C106">
-        <v>23.280999999999999</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="12"/>
-        <v>17.798936433725288</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="13"/>
-        <v>30.0530209446766</v>
-      </c>
+    <row r="106" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W106" s="14">
         <v>192496648</v>
       </c>
@@ -18125,7 +16747,7 @@
         <v>20.059000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W107" s="14">
         <v>193499256</v>
       </c>
@@ -18157,7 +16779,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W108" s="14">
         <v>194501872</v>
       </c>
@@ -18189,7 +16811,7 @@
         <v>20.059000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W109" s="14">
         <v>195504480</v>
       </c>
@@ -18221,7 +16843,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W110" s="14">
         <v>196507096</v>
       </c>
@@ -18253,7 +16875,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W111" s="14">
         <v>197509712</v>
       </c>
@@ -18285,7 +16907,7 @@
         <v>20.702999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="23:33" x14ac:dyDescent="0.25">
       <c r="W112" s="14">
         <v>198512320</v>
       </c>
